--- a/news_data/2017_05.xlsx
+++ b/news_data/2017_05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,66 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>CU, 올 여름 제주도에서 관광 안내소로 변신</t>
+  </si>
+  <si>
+    <t>제주도 관광 활성화 지원… 경기도, 기우회 제주도서 개최</t>
+  </si>
+  <si>
+    <t>제주도의회·日 홋카이도의회, 관광객 유치 공동협력</t>
+  </si>
+  <si>
+    <t>관광공사 "평창·강릉·정선, 제주도 버금가는 관광지로"</t>
+  </si>
+  <si>
+    <t>제주도 서귀포시 중문 관광 후 흑돼지 맛집까지, 하루 관광코스 추천</t>
+  </si>
+  <si>
+    <t>관광숙박시설 허용지역 축소? 제주도의회 “현행대로” 제동</t>
+  </si>
+  <si>
+    <t>"중국인 관광객들이 제주도로 다시 몰려든다"</t>
+  </si>
+  <si>
+    <t>제주도의회, 논란 많은 오라관광단지 또 ‘심사보류’</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 말레이 레저·스포츠 업계 팸투어 실시</t>
+  </si>
+  <si>
+    <t>[화제의 분양현장]제주도 원스톱 관광 이끄는 랜드마크… “미래가치에 투자”</t>
+  </si>
+  <si>
+    <t>제주도의회 제351회 임시회 개최…오라관광단지 사업 이목 '집중'</t>
+  </si>
+  <si>
+    <t>제주도의회 임시회 개회…오라관광단지 심사 '촉각'</t>
+  </si>
+  <si>
+    <t>[로컬 브리핑] 제주관광공사·제주도관광협회, 디스커버 뉴 제주 참여 업체 모...</t>
+  </si>
+  <si>
+    <t>시민단체 "민주당 제주도당 오라관광단지 중단 당론 정하라"</t>
+  </si>
+  <si>
+    <t>노동당·녹색당·정의당 제주도당, 오라관광단지 중단 촉구</t>
+  </si>
+  <si>
+    <t>외국인 관광 활성화 협약한 제주도와 한국공항공사</t>
+  </si>
+  <si>
+    <t>중국자본 위한 오라관광단지 개발은 제주도의 재앙이다</t>
+  </si>
+  <si>
+    <t>중문관광단지 둘러본 후 제주도 서귀포 흑돼지 맛집 탐방.</t>
+  </si>
+  <si>
+    <t>'중국인 떠난 제주도' 국내 관광객이 채운다는데…</t>
+  </si>
+  <si>
+    <t>제주도, 우수관광사업체 모집...홍보 인센티브 혜택</t>
+  </si>
+  <si>
     <t>제주도, 상반기 우수관광사업체 지정 공모</t>
   </si>
   <si>
@@ -52,34 +112,94 @@
     <t>제주도 흑돼지 전문 맛집 '문치비', 여행·관광객 입맛 사로잡다</t>
   </si>
   <si>
-    <t>제주도, 상반기 우수관광사업체 지정 공모 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 상반기 우수관광사업체 지정 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 상반기 우수관광사업체 지정 공모 기자명 고병수 기자 입력 2017.05.16 02:13 수정 2017.05.16 05:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 관광사업체의 자율적인 경쟁을 통해 품질향상과 서비스 개선 등 관광사업체의 경쟁력을 강화시켜 관광객들의 만족도를 향상시킬 우수관광사업체를 15일부터 6월 2일까지 모집한다고 15일 밝혔다.공모대상은 영업신고(리모델링) 후 1년 이상 경과한 제주도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야를 대상으로 한다.이전에 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청해 재지정을 받아야 한다.우수관광사업체 선정은 공모에 신청한 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거치게 되며 지정 기간은 2년이다.주요 평가 항목으로 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등 분야별 평가표에 의해 종합적으로 평가하며 종합점수가 기준 점수(90점)를 충족한 경우 평정위원회 심의를 거쳐 최종 선정한다. 우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여된다.또한 홍보 인센티브 혜택이 주어지며 올해에는 외국어 리플릿을 제작해 각종 마이스 행사와 연계홍보도 할 예정이다.자세한 공모 내용은 제주특별자치도 홈페이지에서 확인할 수 있다.이승찬 관광국장은 "우수관광사업체의 서비스 등 품질 향상을 위해 고객서비스 평가 결과에 따른 서비스 교육을 처음으로 실시하고 지정된 우수관광 사업체에 대해 홍보 지원 등 인센티브를 확대하도록 노력해 나갈 계획"이라며 "이번 공모에 도내 우수 관광사업체가 많이 참여해 주길 바란다”고 당부했다. 한편 제주특별자치도 우수관광사업체는 현재까지 총 102개소가 지정되어 있다.문의= 제주특별자치도 관광협회(064-741-8744) 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>유승민 "제주도, 관광·문화의 중심지 만들 것" 2022.10.04 (화) 포토·영상 스페셜 최신 IT·과학 IT정책 인터넷 통신/방송 컴퓨팅/보안 IT기기 부품 게임 과학 산업 재계 중기/벤처 생활경제 자동차 부동산 경제 경제정책 증권 금융 경제일반 정치 대통령실 국회/정당 외교안보 정치일반 사회 사건사고 교육 지역 사회일반 인사/부음/동정 문화·생활 공연/전시 출판 여행/레저 라이프 문화일반 생활일반 전국 세종대전충청 경인 제주 호남 영남 글로벌 국제경제 국제일반 연예·스포츠 연예 스포츠 오피니언 데스크칼럼 기자수첩 전문가기고 대통령실 국회/정당 외교안보 정치일반 유승민 "제주도, 관광·문화의 중심지 만들 것" 채송무 기자 입력 2017.05.01 10:35 댓글 쓰기 제주 4.3 배·보상법 제정 및 강정마을 구상권을 철회 약속 [아이뉴스24 채송무기자] 유승민 바른정당 후보가 제주지역에 대해 '자연과 문화, 사람이 조화를 이루는 관광·문화의 중심지'로 만들겠다는 공약을 제시했다.유 후보는 1일 오전 제주 4.3 평화재단 대강당에서 기자회견을 갖고 이같이 밝혔다. 유 후보는 이를 위한 세부 공약으로 ▲글로벌 수준 분권형 지방자치 모델 실현 ▲제주 제2공항 조기 개항 ▲환경중심 도시 조성 위한 경관 복원 ▲하수처리 구역 확대 지정 ▲농축수산물 해상운송비 지원 ▲전기차 특구 지정 및 신재생 에너지 활용한 미래형 도시 구축 등 6대 공약을 내놓았다.우선 유 후보는 그동안 제주도의 상처였던 제주 4.3 사건과 강정마을 구상권 문제를 해결해 평화와 화합을 실현하겠다고 했다. 제주 4.3 배·보상법을 제정하고 강정마을 구상권을 철회하겠다고 약속했다.글로벌 수준의 분권형 지방자치 모델을 완성하기 위한 면세특례제도와 재정지원을 확대하고, 특별자치도에 걸 맞는 핵심특례들을 국가 차원에서 보장하겠다고 했다.포화 상태에 이른 제주 제2공항의 조기 개상도 약속했다. 유 후보는 "제주 제2공항의 조기 개항과 주변지역 발전계획을 함께 수립하고, 연결 교통망을 구축해 제주를 동북아시아의 관광허브로 만들겠다"고 강조했다.자연경관 복원과 환경 보전과 관련해서는 송·배전선이 지중화 추진을 약속했다. 덥루어 하수처리구역을 확대 지정하고 관련 시설에 대한 지원을 대폭 확대해 지하수를 보전하겠다고 했다.마지막으로 유 후보는 "제주는 전국 전기차 등록대수의 약 52%가 보급되고 있는 글로벌 전기차 도시"라며 "전기차 특구 육성에 관한 법률을 제정하여, 제주를 전기차 특구로 지정하고 제도적 지원을 뒷받침할 것"이라고 했다.채송무기자 dedanhi@inews24.com 채송무 기자의 다른 기사 보기 부산 간 유승민 "많이 힘들지만 자신있다" 유승민 "영화·게임, 4차 산업혁명 성장 동력으로" 포토뉴스 뉴스 | 포토ㆍ영상 | 오피니언 | 스페셜 회사소개 | 고객센터 | 광고안내 | 개인정보취급방침 Copyright(c) inews24.com. All Rights Reserved.Please read inews24’s privacy policy. Contact us for more information 모바일 웹 보기 제호 : 아이뉴스24 &amp;nbsp|&amp;nbsp등록번호 : 서울아00107 &amp;nbsp|&amp;nbsp 등록일자 : 2005.11.07 &amp;nbsp|&amp;nbsp 사업자 등록번호 : 120-81-97512 &amp;nbsp|&amp;nbsp 통신판매업 신고 : 2013-서울마포-0342 &amp;nbsp|&amp;nbsp 서울시 마포구 독막로19길 15 BR엘리텔 B동 3층 대표전화 : (02)3347-114 &amp;nbsp|&amp;nbsp 발행인 : 이창호 &amp;nbsp|&amp;nbsp 편집인 : 박동석 &amp;nbsp|&amp;nbsp 개인정보관리 책임자 : 배석강 &amp;nbsp|&amp;nbsp 청소년보호 책임자 : 배석강</t>
-  </si>
-  <si>
-    <t>제주도의회 오라관광단지 도민의견수렴 토론회…입장차 확연 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도의회 오라관광단지 도민의견수렴 토론회…입장차 확연 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도의회 오라관광단지 도민의견수렴 토론회…입장차 확연 기자명 고병수 기자 입력 2017.05.12 21:57 수정 2017.05.12 22:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 박연호 주민대표, “사업승인부서 시민단체지 의회인지 행정인지 가늠할 수 없다" 비난 (제주=국제뉴스) 고병수 기자 = 제주도의회 환경도시위원회는 12일 제주도의회 의원회관 대회의실에서 '제주오라관광단지 조성사업 도민의견 수렴을 위한 정책토론회'를 개최했다.이날 토론회는 제주도정의 토론회에 이어 제주도의회 차원에서 마련한 토론회로 지난 제351회 임시회에서 시민단체들의 강한 반발에 상정 보류돼 도민사회의 의견을 모은다는 취지에서 마련됐다.이번 토론회를 통해 제주도의회 환경도시위는 오는 17일 제351회 임시회 제1차 회의에서 오라관광단지 조성사업 환경영향평가서 동의안을 상정해 심의한다.토론회는 고충석 제주국제대학교 총장이 좌장을 맡았다.패널토론에는 허철구 제주대학교 환경공학과 교수, 고병련 제주국제대학교 토목공학과 교수, 양창헌 제주상공회의소 국제협력분과위원장, 성공훈 대한건설기계협회 제주도회장, 남기영 제주지역상권보호대책위원회 수석부회장, 문상빈 제주시민사회단체연대회의 공동대표, 박연호 오라동발전협의회장, 성현 정실마을 오라관광단지 반대대책추진위원장 등이 참여한다.토론회에서 찬반의 입장이 확연히 갈렸다.일자리 창출과 지역경제 활성화 대 지하수, 하수처리, 과잉 숙박시설 공급 등 환경우려의 목소리로 양분됐다.문상빈 제주시민사회단체연대회의 공동대표 지난번 제주도정 주최한 토론회의 주장을 그대로 내놓았다. 허철구 제주대 환경공학과 교수는 "오라단지 사업 규모가 유사 이래 최대 사업이고, 사업지 위치.지리적 여건이 제주시가지로부터 매우 인접한 거리고 중산간과 한라산국립공원에 인접한 지역"이라며 "지역사회 발전이나 관광산업, 도민의 일자리 창출, 긍정적 효과가 있음에도 불구하고 환경문제나 기타 여러 문제 우려되는 부분은 사실"이라고 주장했다.허 교수는 "단일 사업장이 오염물질을 발생시킬 경우 자체 처리를 위한 노력이 더 뒤따라야 한다“며 :환경보전을 위해 아무리 지나쳐도 부족하다"고 덧붙였다.이에 대해 양창헌 제주상의 국제협력분과위원장은 "세계경제가 급변하고 있다. 선거에도 이슈가 됐지만 4차 산업혁명이 시작됐다. 예측이 불가능하다. 관광시장도 예측이 불가능하다"고 전제하며 "오라단지는 제주의 보물이 될 수 있다"고 강조했다.양 위원장은 "우리도 준비해야 하지만 오라동.오등동 주민들의 삶의 터, 제주 젊은이들의 직장, 이것을 꼭 마련해줘야 한다. 제주의 젊은이들에게 꿈과 비전을 줄 수 있는 직장을 최우선순위로 해 적극 연계해야 한다"고 주장했다.박연호 오라동발전협의회장은 "과연 승인부서가 시민사회단체인지 의회인지 행정인지 조차 가늠할 수 없다"고 싸잡아 비난했다.박 회장은 "이미 사업부지는 훼손된 곳이다. 이미 식생이 변한 곳"이라며 "지금은 오라단지 내 6만명이 들어서는 시설이 생기면 사업자에게 표창을 줘야 한다. 저희들은 엎드려 큰절을 올려야 한다"고 밝혔다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>롯데관광개발 제주도서 카지노 리조트 모험...총투자비 시총 2.5배 검색 본문 바로가기 회사정보 바로가기 2022.10.04 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업산업일반재계전기전자자동차산업에너지ㆍ중공업유통생활경제중기ㆍ창업패션뷰티호텔ㆍ관광의료식음료헬스케어제약ㆍ바이오취업ㆍ채용지방국제생활/문화연예스포츠여행TVBBC 홈 &gt; 산업 &gt; 산업일반 롯데관광개발 제주도서 카지노 리조트 모험...총투자비 시총 2.5배 총투자비 8440억원규모...카지노 면허취득도 과제 (서울=뉴스1) 강현창 기자					| 2017-05-04 08:00 송고 | 2017-05-04 15:23 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주 드림타워 복합리조트 야경 조감도. © News1 무산된 용산 '드림허브' 사업에 참여한 경력이 있는 롯데관광개발이 제주도에서 감당이 쉽지 않아 보이는 카지노 관련 거대 리조트사업을 추진하고 있다. 총투자비가 시가총액의 2.5배에 달하는 8000억원이 넘게 들어가는 것으로 계획되어 있다. 제주도가 유보적 입장을 견지하고 있는 카지노 면허 취득도 숙제다.◇ 제주도에서 카지노 관련 거대 리조트 사업...총투자비 8440억원 4일 관련업계에 따르면 롯데관광개발은 현재 제주도 제주시 노형동에서 제주 '드림타워' 복합 리조트를 건설 중이다. 연면적 30만3737㎡에 지하 6층, 지상 38층, 높이 169m로 지어질 예정이다. 지난해 5월에 착공을 시작했으며, 오는 2019년 9월에 완공될 예정이다.지난 2015년 9월부터 롯데관광개발은 해당 리조트 개발 사업을 중국의 부동산개발사인 녹지그룹과 함께 진행 중이다. 지분율은 롯데관광개발이 59.02%, 녹지그룹이 40.98%다.부지는 롯데관광개발의 자회사인 동화투자개발을 통해 지난 1980년대부터 소유하던 곳이지만 이 곳을 개발할 자금은 부족한 상태였다. 이에 롯데관광개발은 드림타워 개발을 위해 녹지그룹과 손을 잡으면서 복잡한 계약을 걸었다. &lt;뉴스1&gt;이 입수한 양사의 계약내용에 따르면 드림타워가 모두 개발된 뒤 토지와 건물 지분 59.02%는 동화투자개발이 가지며 녹지그룹은 나머지 40.98%를 가지게 된다.앞서 동화투자개발은 지난 2015년 9월 녹지그룹에 해당 전체를 부지를 1920억원에 매각했다. 토지 전체가 한 필지라서 잘라서 매각할 수 없었기 때문이다. 이후 동화투자개발은 토지매각으로 들어온 자금 중 1000억원을 공사진행을 위해 지난해 9월 녹지그룹에 다시 계약금으로 건넸다.이후 동화투자개발은 같은 해 10월에 '계약금 1000억원에 대한 권리'를 롯데관광개발에 모두 현물출자하는 방식으로 사업권을 넘겼다. 이에 롯데관광개발-녹지그룹이 공동으로 드림타워 개발을 시행하게 됐다.세부적으로는 롯데관광개발은 59.02% 자기지분분에 대한 건설비용을 대고 리조트 전체 인테리어를 맡는다. 녹지그룹은 리조트 건물 전체를 시공하면서 자기지분 40.98%에 대한 건설비용을 분담하고 호텔레지던스의 분양도 맡는다. 녹지그룹이 보유한 지분 40.98%는 호텔레지던스에 해당하는 지분이다. 분양이 모두 끝나면 소유권이 일반 분양권자에게 넘어간다.전체 리조트 건설을 녹지그룹이 책임시공형식으로 진행하기 때문에 롯데관광개발이 자기지분분에 대한 건설 중도금을 계속 녹지그룹 측에 지급해야 한다. 1차 중도금 1000억원은 오는 2018년 9월까지 지급해야 한다. 이어 2019년 3월에도 2차 중도금 500억원을 지급해야 하며, 나머지 잔금 3180억원은 2019년 9월 완공 뒤 소유권 이전 등기와 함께 지급하는 것으로 계획되어 있다.여기까지 들어가는 총 건설비만 5680억원이며 추가로 인테리어 비용도 완공 전까지 약 2186억원 가량 들어갈 예정이다. 그 밖에 이자비용과 인테리어 설계비, 취득세 등 비용을 모두 합치면 롯데관광개발이 드림타워에 투자하는 총 비용은 8440억원 규모다. ◇ 연매출 500억원·시총 3000억원대 불과한데…금융가 갸우뚱롯데관광개발이 계획한 투자금은 2일 종가기준 시가총액 3418억원의 2.5배다. 롯데관광개발의 지난해 연결기준 매출액도 총 503억원에 불과하다. 영업이익은 32억원, 당기순이익은 15억원 수준이다. 자산규모는 3622억원이지만 유동성 자산은 468억원이며 이중 현금성 자산은 122억원에 불과하다. 자금조달 계획과 관련 롯데관광개발측은 "중도금 1500억원은 제3자 배정 전환사채 발행을 고려하고 있고 잔금 3180억원은 완공시점에서 금융권에서 대출을 받아 소유권 이전을 받는 것을 검토중"이라고 말했다. 그러나 이에 대해 시중은행권 한 자금전문가는 "큰 규모의 외부자금이 들어가는 사업인 만큼 처음부터 프로젝트파이낸싱(PF)형식으로 접근해서 사업성을 공유하고 자금을 누가 얼마만큼 댈지 결정을 하고 진행해야 맞는 사업으로 보인다"고 말했다. 이 관계자는 "리조트 등 프로젝트성 사업은 아파트 구입과 다르다"며 "자기돈으로 하다가 거의 다 지었으니 등기넘겨 받을 수 있게 대출해달라고 찾아온다고 해서 쉽게 결정할 수 있는 사안이 안되며, 잔금대출 또한 하나의 은행이 다 해줄 수 있는 것도 아닐 수 있다"고 덧붙였다.설사 잔금은 은행권에서 조달한다 해도 중도금 1500억원과 인테리어비용 2186억원도 조달이 간단치는 않다. 두 비용만 합쳐도 시가총액을 넘기 때문에 보통주 증자를 하거나 전환사채를 발행할 경우 대규모 주가희석이 불가피하다.◇ 카지노 면허 취득도 과제...제주도 "당장은 어렵다"사업면에서는 핵심인 카지노 면허는 아직 취득되지 못한 상태다. 롯데관광개발 측은 드림타워 2층에 영업장 면적 9120㎡, 테이블 190개, 슬롯머신 420대 규모의 대형 외국인 전용 카지노를 운영한다는 계획이다. 현재 일반 분양 중인 녹지그룹의 호텔레지던스 수익도 카지노에서 나오는 수익을 나눠주겠다는 게 회사 측의 설명이다.카지노 면허 발급 권한을 가진 제주도는 추가로 당장 면허를 발급하는데 유보적이다. 이미 도내 총 8곳의 사업자가 있는 만큼 감독기구 등 관리제도를 정비하는 것이 먼저라는 입장이다. 원희룡 제주도지사는 최근까지도 "싱가포르 수준의 카지노 감독기구 정립이 우선이며 그 전까지 신규 면허 발급이나 확대를 논할 단계가 아니라"고 말해왔다. 김진배 제주도 카지노산업담당 사무관도 "지난 2월에야 5년 단위 계획인 제주특별자치도 카지노업종합계획이 수립됐다"며 "올해 안에 카지노 추가 면허를 획득하거나 기존 면허를 양도·양수 하는 것은 어렵다"고 말했다. 이어 "도지사가 카지노 신규 면허의 조건으로 내걸었던 카지노감독기구의 설립도 중앙부처와의 협의 등이 필요해 시간과 절차가 아직 더 필요하다"고 덧붙였다.이에 대해 롯데관광개발 관계자는 "제주도에 카지노가 8군데 있지만 모두 규모가 작아 손님 유치나 세수확보 면에서 한계가 있다고 보고 있다"며 "랜드마크 형태로 개발되고 있는 만큼 제주도를 설득해 면허를 취득하도록 노력할 것"이라고 말했다.롯데관광개발은 지난달 21일 기관투자자를 대상으로한 기업설명회에서 연내에 해외자본을 유치해 신규면허를 발급받거나 기존 카지노 사업자의 면허를 사올 예정이라고밝혔다. 롯데관광개발이 기업설명회를 연 것은 지난 2008년 이후 9년만이다. khc@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 70대 노인, 10대女 집앞서 나흘간 매복…"귀여워 호감" 스토킹 폭행 기본, 내연녀 셋 심부름 뒤 월급 0원…'갑질 회장님' 누구? 54세 김완선, 치골 드러난 아찔 의상 '깜짝'…고혹적 매력 윤건영 "文 '대단히 무례'외 다른 말도…대단히 참담했을 것" "헬스 코치와 모텔 간 아내, 폭행한 남편에 되레 이혼 요구" 송혜교, 흰 티에도 '만찢녀' 비주얼…독보적 미모 오늘의 핫 포토 쌀쌀해진 아침 윤 대통령 "北 무모한 도발, 국제사회 결연한 대응 직면할 것" 민주당 ‘감사원의 문재인 전 대통령 조사’ 항의 제주는 여름? 10월 낮 기온 31.2도 기록 ‘새출발기금’, 4일부터 공식 출범 우비 입은 수문장들 단기 4355년 개천절, '홍익정신 되새기며…' 탭메뉴 스포츠 연예 스타일 스포츠 [인터뷰] 'SSG 유일 3할타자' 최지훈 "몸이 찢어지더라도 우승할 것" 2경기만 남은 이대호, 이대호 없는 미래를 준비해야 할 롯데 임성재, 시즌 첫 미션은 '타이틀 방어'…슈라이너스 오픈 7일 개막 '나폴리의 벽' 김민재, 월드컵서 만날 '가나 신성' 쿠두스를 막아라 연예 소이현 "출산 후 거울 속 내 모습 싫었다"…인교진 반응은? [RE:TV] 레인보우 고우리, 5세 연상 사업가와 오늘 결혼 [N디데이] "미스터리 섹시" 자신했던 위하준…'작은아씨들'의 탁월한 캐스팅 [N초점] '파격' 김예원 "간절하게 합류한 '수리남'…출연 반대도 있었지만" [N인터뷰]① 스타일 구준엽♥서희원, 샤워 가운만 입고 소파에서...눈에서 꿀떨어지는 투샷 [N화... 송혜교, 그림 같은 미모...우아함 넘치는 '가을여신' [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
-  </si>
-  <si>
-    <t>제주도, 타이베이 직항 대만 관광객 유치 주력 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 타이베이 직항 대만 관광객 유치 주력 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 타이베이 직항 대만 관광객 유치 주력 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.05.04 10:58 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 타이베이국제관광박람회 참가 제주홍보부스 운영, 현지 주요업계 세일즈콜 제주특별자치도와 제주관광공사(사장 최갑열), 제주관광협회(회장 김영진)는 제주도내 업계와 공동으로 오는 5일부터 8일까지 대만에서 개최되는 타이베이국제관광박람회에 참가해 제주관광 공동 홍보에 나선다고 4일 밝혔다.타이베이시 여행상업동업공회가 주최하는 2017 타이베이국제관광박람회는 35개 국가, 460개 업체, 관람인원 약 30만명으로 예측되는 대형 국제관광박람회로 제주도 홍보부스는 한국관광공사에서 전담하는 한국관 안에 위치할 예정이다.도·공사·협회는 도내업계와 공동으로 '제주, 설레는 섬 여행(濟州, 心動島旅)'라는 주제로 6월부터 증편되는 직항노선 활성화를 위해 특수 테마 콘텐츠 홍보 및 개별여행 관광자원 정보 제공을 통해 대만 관광객 유치 확대에 박차를 가할 계획이다.또한 제주 인지도 제고를 위해 제주관광홍보 소개 무대 이벤트를 진행하고, 제주기념품 증정 SNS 이벤트를 통해 개별여행객들이 손쉽게 제주 관광 정보를 얻을 수 있도록 제주관광공사 SNS 채널을 홍보할 예정이다. 이와 더불어 대만 지역 FIT(개별관광객)와 SIT(특수목적관광객) 유치 확대를 위해 대만 주요 항공사 및 여행업계 대상으로 세일즈를 펼쳐 대만-제주 직항노선 안정화와 신규 노선 확대, 제주 특수테마 콘텐츠 상품 개발 및 홍보 강화에 나설 계획이다.제주관광공사 관계자는 "대만관광객 유치 활성화를 위해 지속적으로 다양한 마케팅 활동을 추진하고 있으며, 오는 6월 타이베이-제주 단일 직항노선이 주4편으로 증편함에 따라 더욱 많은 대만 관광객에게 제주의 매력을 알릴 수 있도록 최선을 다할 것"이라고 전했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 도내 우수관광사업체 모집 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도 도내 우수관광사업체 모집 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도 도내 우수관광사업체 모집 박미예 기자 승인 2017.05.15 18:10 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=박미예 기자] 제주특별자치도는 관광사업체의 경쟁력 강화를 유도하기 위해 다음 달 2일까지 우수관광사업체를 모집하고 있다.우수관광사업체로 지정되면 지정서 및 인증패가 수여되고, 업체 컨설팅 및 현장교육 등도 지원받게 된다. 또 제주도 관광정보시스템, 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택도 주어진다.모집 대상은 관광지·교통·숙박업·여행업·음식업 5개 분야의 사업체 중 영업신고 후 1년 이상 경과한, 제주에 본점을 둔 사업체다. 이전에 우수관광사업체로 지정돼 2년이 도래한 사업체는 재지정을 받아야 한다.우수관광사업체 지정기간은 오는 7월 1일부터 2019년 6월 30일까지이며, 주요 평가 항목은 사업체의 시설 및 환경, 서비스, 요금, 안전 및 위생관리, 지역 사회 공헌도 등이다.신청 희망 업체는 제주도 홈페이지 입법·공고·고시 게시판에서 신청서를 내려받아 제주도관광협회에 신청하면 된다.문의 741-8744. 박미예 기자  my@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 박미예 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, ‘타이베이국제관광박람회’ 참가 제주관광 공동홍보-국민일보 시사 시사 &gt; 전체기사 제주도, ‘타이베이국제관광박람회’ 참가 제주관광 공동홍보 입력 : 2017-05-05 09:12 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도·제주관광공사·제주관광협회는 오는 8일까지 대만에서 개최되는 ‘타이베이국제관광박람회’에 참가해 본격적인 제주관광 공동홍보에 나선다고 5일 밝혔다. 타이베이시 여행상업동업공회에서 주최하는 ‘2017 타이베이국제관광박람회’는 35개 국가·460개 업체에서 참여하고, 관람인원만 약 30만명에 이르는 대형 국제관광박람회다. 제주도 홍보부스는 한국관광공사에서 전담하는 한국관 안에 위치할 예정이다. 도·공사·협회는 대만 지역 FIT(개별관광객)와 SIT(특수목적관광객) 유치 확대를 위해 대만 주요 항공사 및 여행업계를 대상으로 대만∼제주 직항노선 안정화와 신규 노선 확대, 제주 특수테마 콘텐츠 상품 개발 및 홍보 강화에 나선다.  개별여행객들이 손쉽게 제주 관광정보를 접할 수 있도록 ‘제주, 설레는 섬 여행(濟州, 心動島旅)’을 주제로 한 제주관광공사 SNS 채널도 홍보한다. 도와 공사는 지난 3월 대만 업계 대상 제주관광설명회를 비롯해 타이완 타이거항공 첫 취항 환대행사, 항공사 공동 경유상품 개발 팸투어 등을 추진한 바 있다.  이어 지난달에는 대만 유명 여행프로그램 ‘애완객(愛玩客)’ 제주특집 취재 팸투어를 진행하는 등 대만 시장을 타깃으로 다양한 마케팅 활동을 추진하고 있다. 제주관광공사 관계자는 “6월부터 타이베이∼제주 단일 직항노선이 주4편 증편됨에 따라 많은 대만 관광객에게 제주의 매력을 알릴 수 있는 기회가 넓어졌다”고 밝혔다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 김건희 논문 증인들 줄줄이 국감 불출석…野 “국민무시” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 [속보] ‘채널A 기자 명예훼손 혐의’ 최강욱 1심 무죄 ‘김치용 배추’ 구글 번역기 돌리니 ‘Chinese cabbage’ 日 22세 거포 무라카미, 56호 홈런으로 신기록 썼다 주호영 “文, 왜 과민반응인지 모르겠다…조사 응해야” 경기도 ‘면접수당’ 문화 확산…지급 인증 기업 모집 임윤찬의 베토벤 ‘황제’ 실황 앨범 11월 발매 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 광주의 10월 가을축제 향연…세계 최대 거리공연 첫선 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 尹대통령, 北미사일에 “NSC 개최”…감사원 조사엔 “일반적 원칙” 완도수목원서 숲속음악회…‘가을산책 문화행사’ 풍성 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 하나투어·질병관리청, ‘SAFETY CODE’ 공동 캠페인 대구경찰 텔레그램 가상자산 마약유통·투약 53명 입건</t>
-  </si>
-  <si>
-    <t>제주도의회 환경도시위, 12일 오라관광단지 의견수렴 토론회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도의회 환경도시위, 12일 오라관광단지 의견수렴 토론회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 제주도의회 환경도시위, 12일 오라관광단지 의견수렴 토론회 개최 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2017.05.11 16:45 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도 개발사(史)에서 최대 규모의 난개발 및 환경훼손 논란이 일고 있는 제주오라관광단지 조성사업과 관련해, 제주특별자치도의회 환경도시위원회(위원장 하민철)가 이 사업에 대한 도민들의 의견을 수렴하기 위해 12일 토론회를 개최한다.환경도시위는 중국자본 JCC㈜가 2021년까지 6조2800억원을 투입해 제주시 오라동 일대 357만5753㎡ 부지에 대한 개발사업을 추진할 예정이어서 이에대한 도민의견을 수렴하고자 토론회를 개최하는 것이라고 밝혔다.환경도시위는 이 사업은 단일개발사업으로는 제주 역대 최대의 투자규모이며, 개발예정지는 제주시 핵심 중산간 지역인 한라산국립공원 바로 밑 해발 350~580m에 위치하고 있어 대규모 개발사업으로 다양한 환경영향이 예상되어 도민들의 다양한 의견을 들을 필요가 있다고 판단했다고 설명했다.토론회는 고충석 제주국제대학교 총장이 좌장을 맡아 주제발표 없이 막바로 패널 토론 및 방청석 토론방식으로 진행된다.패널토론에는 허철구 제주대학교 환경공학과 교수, 고병련 제주국제대학교 토목공학과 교수, 양창헌 제주상공회의소 국제협력분과위원장, 성공훈 대한건설기계협회 제주도회장, 남기영 제주지역상권보호대책위원회 수석부회장, 문상빈 제주시민사회단체연대회의 공동대표, 박연호 오라동발전협의회장, 성현 정실마을 오라관광단지 반대대책추진위원장 등이 참여한다.한편 환경도시위는 이 토론회가 끝나면 오는 15일 개회하는 제351회 임시회에서 오라관광단지 조성사업 환경영향평가서 협의내용 동의안을 상정해 심의한다고 11일 밝혔다. 현재 17일 상임위 심의일정이 잡혀져 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 난개발 논란 오라관광단지 동의안 재상정 추진, 이번에는? 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도의 힘! 中 악재 속 내국인 관광객 ‘북적’ | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도의 힘! 中 악재 속 내국인 관광객 ‘북적’ 입력 : 2017-05-10 03:00:00 수정 : 2017-05-09 20:37:55 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 황금연휴기간 41만여명 방문 제주도가 사드 직격탄을 맞았지만 5월 황금연휴 기간 내국인 관광객들로 넘쳐나 관광업계가 특수를 누렸다. 9일 제주도관광협회에 따르면 지난달 29일부터 이달 7일까지 관광객 41만6325명이 제주를 방문한 것으로 잠정집계됐다. 이는 지난해 같은 기간 40만6615명에 비해 2.3 증가한 것이다. 사드(THAAD·고고도미사일방어체계) 배치에 따른 중국 정부의 한국관광 금지에도 전체 관광객 수는 늘었다. 연휴 첫날인 4월29일과 석가탄신일인 5월3일에는 하루 방문객이 5만명을 넘었다. 내국인은 38만7427명으로 연휴 기간 방문한 관광객의 93를 기록했다. 전년 같은 기간 내국인 33만4938명보다 15.7 늘어난 것이다. 대선일인 9일과 10일 이틀간에도 내외국인 관광객 8만여 명이 제주를 찾을 것으로 예상된다. 그러나 중국인 관광객 감소로 이 기간 외국인 관광객은 2만8898명에 그쳤다. 지난해 같은 기간 9만3287명과 비교해 69 급감한 것이다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20170509001885 0101070100000 0 2017-05-10 3:4:44 2017-05-09 20:37:55 0 제주도의 힘! 中 악재 속 내국인 관광객 ‘북적’ 세계일보 지원선 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 중양절 음력 9월9일을 중양절(重陽節)이라 한다. 옛부터 홀수, 곧 양수(陽數)가 겹친 길일 가운데 이날을 중시했다. 중구(重九)라고도 한다. 중국에서 유래한 명절이지만 우리나라에서도 신라 때부터 이날에는 군신들의 모임을 열거나 향연을 벌였다. 조선 세종 때는 삼짇날(3월3일)과 중양절을 명절로 공인했다. 중양절에는 늙은 대신들을 위한 잔치인 기로연(耆老宴)을 베 [채희창칼럼] 교육교부금 이대론 안 돼 요즘 전국 초·중·고등학교에서 ‘돈 쓰기 경쟁’이 벌어지고 있다. 서울시교육청은 올해 600억원을 들여 중학교 신입생들에게 태블릿PC 1대씩을 주고 있다. 신종 코로나바이러스 감염증(코로나19) 대응을 내세워 학생들에게 10만∼30만원씩 현금을 뿌린 교육청도 많다. 울산·제주 교육청처럼 2∼3차례나 지급한 곳도 있다. 멀쩡한 교실 바닥을 교체하거나, 단체로 [기자가만난세상] 대우조선 성공적 인수를 바라며 대우조선해양이 23년 만에 새 주인을 맞을 것으로 보인다. 1999년 워크아웃(재무 개선 작업) 이후 2001년 산업은행의 관리에 들어간 뒤 2009년 한화의 인수 무산을 거쳐, 다시 13년 만이다. 방산업체인 한화가 기존 육·공군에서 해군까지 사업 분야를 넓히기 위해 한 번 더 손을 내밀었다. 20년 넘는 표류 끝에 나온 해법은 결국 좋은 주인을 찾아주 [한귀은의멜랑콜리아] ‘오징어게임’을 하지 않는 방법 회식이 있었다. 부동산이 주제는 아니었다. 이슈는 ‘이사’였는데, 이사 이야기는 마치 자석에 이끌리듯 부동산 이야기로 쏠렸다. 오래지 않아 구멍이 생겼다. 나였다. 그들이 이사한 고급 아파트 이름, 나로서는 처음 들어본 것이었다. 같은 도시에 살아도 마치 다른 공간에 사는 것처럼, 다른 시간대를 사는 것처럼 서로 겉돌았다. 나의 무지에 대해 약간의 놀림 섞 HOT뉴스 1 터미네이터 속 ‘심판의 날’ 온다? 2 학생 흡연↑…中, 과일맛 전자담배 퇴출 3 웹망원경, 130억년 전 항성 빛 포착한 듯 4 말기 암 소년 위해 집 앞 몰려든 ‘괴물’들 5 "가장 오래된 이빨 화석 中서 발견" 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
-  </si>
-  <si>
-    <t>제주도 흑돼지 전문 맛집 ‘문치비’, 여행·관광객 입맛 사로잡다 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 10:20 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 흑돼지 전문 맛집 ‘문치비’, 여행·관광객 입맛 사로잡다 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 흑돼지 전문 맛집 ‘문치비’, 여행·관광객 입맛 사로잡다 기자명 인터넷뉴스팀 기자 입력 2017.05.11 16:13 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 제주도 서귀포시에서 지난 5월 6일 새연교 특설무대에서 열린 ‘2017 새연교 시민 콘서트’가 성황리에 개막했다. ‘봄날의 음악편지’를 주제로 열린 이번 콘서트는 총 4개 팀의 열정적인 공연을 관광객과 시민 500여명에게 선사했다.2011년부터 시작된 새연교 콘서트는 서귀포 체류 관광객의 만족도와 도시브랜드 이미지를 높이며 연간 4,000여명의 관람객이 방문하는 등 대표 야간관광 이벤트로 자리매김 되고 있다.‘2017 새연교 시민 콘서트’는 5월부터 9월까지 매월 첫째, 셋째 주 토요일 저녁 7시에 정기적으로 열린다.축제하면 빠질 수 없는 것이 맛집 방문이다. 서귀포 새연교 시민 콘서트를 비롯해 중문 관광단지와 월드컵 경기장, 엉또폭포 등 제주 주요 관광지와 인접해 있는 흑돼지 전문 맛집을 소개한다.제주 강정동 서귀포 신시가지 소재 ‘문치비’(대표 문신민)에서는 메인 메뉴인 흑돼지 외에 일반 돼지도 취급하며 목살과 양념돼지갈비, 항정살과 갈매기똥(갈매기살) 등 다양한 메뉴를 선뵈고 있다. 모든 고기메뉴는 근 고기(600g) 단위로도 주문이 가능하며 가족외식, 직장인 회식이나 동창회모임 등 단체방문도 가능하며 식사류가 함께 마련돼 있어 1차와 2차를 동시에 해결할 수 있다.문치비에서는 깡통 위에 고기를 굽는 것이 특징이다. 고기 주문 시 편백나무 도마 위에 고기가 썰려 나오며 기본 상차림으로 제주도 향토음식인 몸국과 돼지껍데기를 내놓는다.문치비 문신민 대표는 “문치비의 ‘치비’는 제주도 방언으로 ~씨네, ~가네 라는 뜻으로 문씨네 혹은 문가네로 해석된다.”며, “이름을 걸고 식당을 운영하는 만큼 고객들이 내 가족에게 믿고 추천할 수 있는 장소가 될 수 있도록 정진하겠다.”고 말했다.예약 및 기타 자세한 사항은 제주도 강정동 서귀포 신시가지 소재 ‘문치비’로 문의하면 된다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 기자 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 [특징주] 오토앤 주가 급등세... 이유는? 10월 4일 오늘의 띠별 운세 '쥐띠·소띠·뱀띠·용띠·개띠 주목' 아산시, 겨울철 코로나19 추가접종…11일부터 ‘모더나 2가 백신 접종’ 당신만 안 본 뉴스 50대 여배우 ‘조은숙’ 근황 공개...검색량은? "무안하고 당황스러워" 돈스파이크 와이프 성하윤 고충 토로 한그루 이혼에 남편 누구?...과거 애칭·인스타그램 재조명 롤 서버 점검, 언제까지 하나 "차 보닛에 손 대봐" 성하윤 소름 돋게 한 돈스파이크 의심 뭐였길래 50대 여배우 조은숙 "신랑, 어린 걸 불편..." 연하 남편 애칭 뭐길래 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 50대 여배우 ‘조은숙’ 근황 공개...검색량은? 오늘공감 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 10월 4일 오늘의 띠별 운세 '쥐띠·소띠·뱀띠·용띠·개띠 주목' 합참 "북한, 동쪽 방향으로 미상 탄도미사일 발사"...일본 상공 통과한듯 인기기사 1 [오늘의 금값시세] 10월 3일 24·18k 한돈 금시세는? 2 [2022년 10월 공모주 청약 일정] 에스비비테크 수요예측·확정 공모가·상장일은? 3 [2022년 10월 공모주 청약 일정] 샤페론 수요예측·확정 공모가·상장일은? 4 [검은 손이 노린다] 피싱 범죄, 아는 만큼 피할 수 있다 (완) 5 [주유소 가격비교] 10월 3일 기름값 싼곳 어디? 최저가 휘발유 1517원·경유 1679원 6 [특징주] 오토앤 주가 급등세... 이유는? 7 김민기 의원, ``LH 임대주택 부적격 입주자 5년간 4만명 육박`` 8 최영희 의원 “건강보험공단 고액자산가·소득자 구상금 미납 심각” 9 한 총리 "연대·상생으로 재도약…홍익인간 정신으로 새시대 열어가야 10 배준영 의원 "5년간 국세청 과오납환급금 30조5천억 육박" 최신기사 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 [특징주] 오토앤 주가 급등세... 이유는? 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
+    <t>CU, 올 여름 제주도에서 관광 안내소로 변신 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 산업 산업최신 산업/기업 유통/생활경제 패션/뷰티 음식/맛집 창업/취업 자동차 항공 중기/벤처 해양수산 CU, 올 여름 제주도에서 관광 안내소로 변신 등록 2017.05.30 09:10:26 작게 크게 【서울=뉴시스】김종민 기자 = 편의점이 이번 여름 휴가객을 위해 관광 안내소로 변신한다. CU(씨유)는 'VPASS(브이패스)'와 손잡고 6월 중순부터 제주 지역에 '3초 할인쿠폰' 서비스를 업계 단독으로 개시한다고 30일 밝혔다. 'VPASS(브이패스)'는 제주도 쿠폰 발급 1위 업체인 ㈜해우리가 운영하는 모바일 할인 쿠폰 서비스로, CU(씨유)와 이번 협업을 통해 제주도 130여 곳 관광지의 입장권 및 이용권을 최대 60%까지 할인된 가격에 제공한다. 휴대폰으로 리플렛에 표기된 대표번호로 전화를 걸면 3초 후 문자로 할인 쿠폰이 발송되는 방식으로, 결제 시 이를 제시하면 바로 할인가를 적용 받을 수 있다. 할인 쿠폰에는 한화아쿠아플라넷제주, 아이스뮤지엄 등 제주 대표 관광지 입장권 외에도 승마장, 여객선 등 이색 레저 체험권과 제주 맛집의 대표메뉴 이용권 등도 포함되어 있다. CU(씨유)는 고객들이 해당 서비스를 편리하게 이용할 수 있도록 이용방법과 QR코드가 인쇄된 배너 및 리플렛을 협재 해수욕장, 성산 일출봉, 우도 등 제주도 주요 관광지 점포 10여 곳에 우선 비치했으며 점차 이를 확대해 나갈 예정이다. 이 밖에도 CU(씨유)는 지난 5월 한국관광공사와의 업무 협조를 통해 제주도를 비롯한 서울, 부산 등의 주요 관광지에 영어, 일어, 중국어로 된 관광지도 및 가이드북 각 1만여 부를 비치했다. 점포 내 행사 홍보물과 가격표 역시 3개 국어(영∙중∙일)로 표기하고, 접객 인사, 가격 안내, 결제 방법 등을 3개 국어로 번역한 안내 매뉴얼을 각 점포에 배포해 근무자가 외국인 고객에게도 친절하게 응대할 수 있도록 했다. BGF리테일 생활서비스팀 김영지MD(상품기획자)는 "매년 관광객 수가 증가하고 있는 우리나라 추세에 맞춰 누구나 편리하게 이용할 수 있는 편의점을 만들기 위해 노력하고 있다"며 "국내 최대 CU(씨유) 점포망과 뛰어난 접근성으로 관광안내소가 부족한 곳에서 다양한 편의를 제공하는 관광 인프라 역할을 할 수 있을 것으로 기대된다"고 말했다. jmkim@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 6내년부터 일시적 2주택자 취득 가산세 부담 완화 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 관광 활성화 지원… 경기도, 기우회 제주도서 개최 menu 제주도 관광 활성화 지원… 경기도, 기우회 제주도서 개최 search 오피니언 사설 사설(인천) 김종구칼럼 경기만평 지지대 세상읽기 지역사회 중부권 남부권 서부권 동부권 북부권 인천 인천뉴스 인천정치 인천사회 인천경제 인천교육 정치 정치일반 정부 국회 도·의정 경기뉴스 북한국제 선거 경제 경제일반 부동산 금융·증권 소비자·유통 IT 취업·창업 사회 사회일반 사건·사고·판결 교육·시험 꿈꾸는 경기교육 환경·질병 날씨 독자서비스 지면 PDF 로그인 회원가입 Webmaster 메일 스포츠 스포츠일반 축구 야구 농구 배구 골프 kt wiz SSG 랜더스 문화 문화일반 공연·전시 출판·도서 종교 건강·의학 사람들 사람들 인사 부음 결혼 본사내방 독자권익위원회 편집위원회 알림 포토 TODAY포토 영상 경기TV 뉴스 제보톡 G-STORY 경기도 박물관 · 미술관 다시보기 퍼니점 PHOTO경기 고객센터 기사제보 카톡제보 구독신청 광고문의 출판문의 제휴문의 저작권문의 공유 close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 정치 도·의정 제주도 관광 활성화 지원… 경기도, 기우회 제주도서 개최 승인 2017-05-28 17:24 이호준 기자 hojun@kyeonggi.com 기자페이지 ▲ 기우회 정례회 ▲ 올레길 산책 경기도와 제주도가 사드(THAAD, 고고도미사일방어체계) 배치로 인한 중국의 방한 금지령으로 피해를 보고 있는 제주도의 관광 활성화를 위해 서로 협력하는데 뜻을 모았다. 남경필 경기지사는 지난 26일 제주도 서귀포시의 한 호텔에서 경기도지역 오피니언 리더들의 모임인 ‘기우회’ 회원 80여 명과 ‘경기도 기우회 제주도 정례회’를 가졌다. ▲ 올레길 산책2 기우회가 타지역에서 정례회를 갖는 것은 지난 1991년 설립 이후 26년 만에 처음이다. 이번 정례회는 국내 관광 활성화 및 타 시ㆍ도와의 교류협력 활성화 차원에서 이뤄졌다. 남 지사는 기우회에서 인사말을 통해 “어려울 때 서로 힘을 합하는 게 연정의 정신이다. 힘들 때 서로 도와주는 게 위기를 극복하는 가장 좋은 방법”이라고 제주도 개최의 의미를 설명했다. ▲ 제주 해군 기지 방문 원희룡 제주지사 역시 기우회에 참석해 “경기도와 지역단체, 공공기관들이 제주도와 실질적인 교류 협력 관계를 맺어가면 서로에게 도움이 될 것”이라며 “그게 결국 제주도를 외국인 앞마당이 아닌 대한민국의 보물섬으로 지켜가는 방법”이라고 강조했다. 기우회는 이날 정례회에 이어 27일에는 올레길, 제주 해군기지, 동문시장 등 제주도 관광지를 둘러봤다. 한편 경기도와 제주도는 지난 2015년 8월 상생협력을 맺고 ▲일자리 창출 ▲신성장 산업 ▲농산물 유통판매 ▲도민 교육 및 공무원 교류 ▲관광 등 모두 5개 분야에 32개 협력 사업을 추진 중이다. 이호준기자 © 경기일보(www.kyeonggi.com), 무단전재 및 수집, 재배포금지 댓글 댓글 운영규정 회원로그인 로그인 후 이용해 주세요 0/ 400 등록 최신순 추천순 회사소개 고충처리 독자권익위원회 편집위원회 언론 윤리강령 기자 윤리강령 디지털뉴스 이용규칙 개인정보처리방침 청소년보호정책(책임자:박화선) 등록번호 : 경기 아52209등록일 : 2019년 06월 07일발행·편집인 : 신항철 수원본사 : 우)16303 경기도 수원시 장안구 경수대로 973번길 6 (송죽동) 경기일보B/D   전화 : 031-250-3333인천본사 : 우)21436 인천광역시 부평구 경인로 707   전화 : 032-439-2020 경기일보는 인터넷신문위원회 윤리강령을 준수합니다.   Copyright © 2022 경기일보. All rights reserved. 댓글 운영기준 × 경기일보 뉴스 댓글은 이용자 여러분들의 자유로운 의견을 나누는 공간입니다. 건전한 여론 형성과 원활한 이용을 위해, 아래와 같은 사항은 삭제할 수 있음을 알려드립니다. 경기일보 댓글 삭제 기준 1. 기사 내용이나 주제와 무관한 글 2. 특정 기관이나 상품을 광고·홍보하기 위한 글 3. 불량한, 또는 저속한 언어를 사용한 글 4. 타인에 대한 모욕, 비방, 비난 등이 포함된 글 5. 읽는 이로 하여금 수치심, 공포감, 혐오감 등을 느끼게 하는 글 6. 타인을 사칭하거나 아이디 도용, 차용 등 개인정보와 사생활을 침해한 글 위의 내용에 명시되어 있지 않더라도 불법적인 내용이거나 공익에 반하는 경우, 작성자의 동의없이 선 삭제조치 됩니다.</t>
+  </si>
+  <si>
+    <t>제주도의회·日 홋카이도의회, 관광객 유치 공동협력 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도의회·日 홋카이도의회, 관광객 유치 공동협력 (제주=뉴스1) 오미란 기자					| 2017-05-25 13:43 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 고충홍 제주도의회 행정자치위원회 위원장이 지난 23일 엔도 렌 일본 홋카이도의회 의장을 예방해 신관홍 제주도의회 의장의 친서를 전달하고 있다.(제주도의회 제공) © News1 제주도의회와 일본 홋카이도의회가 두 지역 간 관광객 유치에 공동 협력키로 했다.제주도의회는 고충홍 제주도의회 행정자치위원회 위원장이 지난 23일 엔도 렌 일본 홋카이도의회 의장을 예방해 신관홍 제주도의회 의장의 친서를 전달했다고 25일 밝혔다.친서에는 제주도의회와 홋카이도의회 간 교류를 통해 양 지역의 공동 번영과 발전을 희망하고, 홋카이도의회의 제주 방문을 요청하는 내용이 담겨 있다.이와 함께 고 위원장은 다원화된 관광시장을 개척하는 데에도 상호간 공동 협력할 것을 제안했다.고 위원장은 "제주‧홋카이도‧하와이 간 항공노선을 개설‧연계해 일본‧한국‧미국 관광시장을 개척한다면 보다 많은 관광객 방문으로 양 지역이 발전하는 계기가 될 것"이라고 강조했다.이에 엔도 렌 의장도 "홋카이도와 하와이 간 우호협정이 체결된 바 있기 때문에 우호협력도시 간 항공 등 관광네트워크를 강화한다면 충분히 가능하다"고 화답했다. 고 위원장은 "이번 연수를 바탕으로 홋카이도의회와의 정기적 교류를 추진해 중국인 중심의 외국인 관광시장이 일본을 포함해 다원화될 수 있도록 노력해 나가겠다"고 밝혔다. mro1225@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>관광공사 "평창·강릉·정선, 제주도 버금가는 관광지로" - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 샘 해밍턴 "아들 윌리엄, 비밀연애중"…장동민 '눈물' 왜? 코스닥 -4% 학살의 날…게임·바이오株 하락폭 키우며 폭락 주차장 '차털이' 하려던 50대, 관리인에 들키자 흉기로 찔러 中배터리 CATL, 올해 3분기까지 '작년 순익' 넘게 벌었다 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 '경제 전쟁'에 韓 반도체 타격"…삼전·하이닉스 파랗게 질렸다 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 샘 해밍턴 "아들 윌리엄, 비밀연애중"…장동민 '눈물' 왜? 코스닥 -4% 학살의 날…게임·바이오株 하락폭 키우며 폭락 주차장 '차털이' 하려던 50대, 관리인에 들키자 흉기로 찔러 中배터리 CATL, 올해 3분기까지 '작년 순익' 넘게 벌었다 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 '경제 전쟁'에 韓 반도체 타격"…삼전·하이닉스 파랗게 질렸다 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 관광공사 "평창·강릉·정선, 제주도 버금가는 관광지로" sns공유 더보기 관광공사 "평창·강릉·정선, 제주도 버금가는 관광지로" 머니투데이 박다해 기자 기자 더보기 sns공유 더보기 2017.05.25 09:59 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 [제3회 머니투데이 관광포럼] 이재성 한국관광공사 본부장 "역대 동계올림픽 개최지의 사례를 보면 '성공한 올림픽'이란 평가는 올림픽 이후에 얼마나 지속가능한 지역의 가치가 창출되냐에 달려 있습니다." 이재성 한국관광공사 본부장은 25일 서울 중구 문화창조벤처단지에서 열린 ‘제3회 관광포럼 K-樂 : 2018 평창 동계올림픽-Before &amp; After 평창’에서 "평창, 강릉, 정선은 사계절이 뚜렷하고 산·바다·호수가 어우러진 아름다운 도시로 제주도와 버금가는 관광지로 될 수 있도록 (노력)하겠다"고 밝혔다. 이 본부장은 "관광공사는 평창, 강릉, 정선, 강원도 등 지방자치단체와 긴밀하게 협조해서 개최지 주변의 관광지를 다듬고 연결하는 작업을 하고 있다"며 "이번 평창올림픽을 계기로 접근성이 굉장히 좋아져서 훌륭한 관광지로 거듭날 수 있을 거란 생각이 든다"고 말했다. 또 "교통, 음식점, 쇼핑 등 관광객들이 주로 찾는 장소의 불편을 최소화하기 위해 노력하고 있다"며 "이번 포럼을 통해 (평창의) 숨겨진 매력을 살펴보면서 올림픽 이후에도 강원도가 4계절 관광지로 거듭날 수 있도록 많은 도움을 달라"고 당부했다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리는 이른바 "빅스텝"을 단행할 것으로 내다보는 것으로 나타났다. 한은이 빅스텝 인상에 나선다면 지난 7월 금통위에 이어 역대 두 번째다. 빅스텝이 현실화되면 국내 기준금리는 현행 연 2.5%에서 3.0%로 오른다.7일 머니투데이가 증권사 애널리스트 10명을 대상으로 조사한 결과, 10명 모두 한은이 오는 12일 기준금리를 0.5%p 올릴 것으로 예상했다. 금통위 내에서 "0.25%p 인상"으로 소수의견이 있을 것이란 답변은... 코스피 -2%, 코스닥 -3%…"언제까지 내려가" 개미들 울상 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 연준 "4.5% 위에서 금리 인상 중단"…경기 둔화 위험 언급 단독 맞춤 패키지로 K원전 수출한다 "빚내 집사라"던 9년 전처럼…얼어붙은 부동산 매수심리 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 생활문화 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 '화물차 음주 사고' 재판받던 중 또 무면허 음주운전…'감형'받은 이유 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 이전 다음 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 부산 빛낸 김유정, '8100만원대' 초호화 드레스 룩…어디 거? 베트남 "'작은 아씨들' 방영 중단해달라"…바로 삭제한 넷플릭스, 왜 韓日 하늘길 열리자 '카지노'도 들썩..실적 반등 기대에 재개장↑ "주얼리만 3.2억?" 블랙핑크 지수, 아찔한 초미니 패션…어디 거 블랙핑크 제니 vs 모델, 클래식한 패션…같은 옷 다른 느낌 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 '91세' 이런 몸 가능?…기네스북 최고령 美모델 파격 화보 [영상] 맨몸의 모델에 스프레이 뿌리니…화려한 의상 등장 '반전' [내일 날씨] 연휴 마지막 비·바람에 체감온도 '뚝'…서울 최저 9도 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 "농진청 쌀 생산량 예측 능력 정확도 높여야" 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 생활문화 마켓 '노벨상 특수' 서점가 활기…아니 에르노 소설 인기 국립현대무용단 '작꾸 둥굴구 서뚜르게', '스텝업' 무대에 K콘텐츠 유럽 판로 확대..'2022 K-콘텐츠 엑스포' 개최 '미지의 땅' 사우디아라비아로 '도슨트 투어' 떠나볼까 [오늘 날씨] 전국 산발적 비·돌풍에 체감온도 뚝…서울 최저 9도 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 JW생명과학, 국내 첫 전용량 종합영양수액제 자동화 라인 가동 SK이노베이션, 이익 개선 방향은 여전-NH투자증권 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 역술가도 한숨 쉰 박수홍 사주 "아들 죽고 母 일어선다" '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 김영민, 윤형빈과 갈등…"나를 죽이려고 해, 10년 넘게 안봤다" 공감 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 비공감 유혜영, '옥중 이혼' 나한일과 재결합했지만…"따로 산다" 왜? '사별' 엄앵란, 5살 연하 의사와 '썸' 타나…"10년간 매주 만나" "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 비공감 [기자수첩] 판교에 나타난 '피해 호소인' 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 공감 이효리·이상순 저격한 전여옥 "재벌 못지 않다…꼭 카페 해야하나" 비공감 53세女 "30대 남성들이 너무 대시해"…서장훈 "이해 안돼" 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" 공감 '16살' 정동원, 벌써 한강뷰 집서 자취…"부동산에 직접 전화" 비공감 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 신화 신혜성, 음주측정 거부 혐의 체포..차량 도난 의심 '충격'[공식] MoneyS 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 IZE 도경수는 '진정' 믿고 볼 만해! the300 핵에는 핵, 30년만 '전술핵 재배치' 가능성…총력 대응 나선다 theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 9 김유정 'BIFF 반가워요' 28 '아시아 스타 어워즈' ★들의 잔치 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>제주도 서귀포시 중문 관광 후 흑돼지 맛집까지, 하루 관광코스 추천 Powered by HOSTWAY 뉴스레터 구독신청 베타경제 베타뉴스TV 로그인 회원가입 Last Update : 전체기사 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 전체기사 리뷰 가전리뷰 기획기사 벤치마크 구입가이드 탐방 인터뷰 칼럼/사설 팁테크 이벤트 동영상 전체기사 뉴스 탐방/인터뷰 이벤트 리뷰 기획기사 기자수첩/칼럼 종합 전체기사 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 전체기사 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전체기사 문화 연예 스포츠 정치 종합 제주도 서귀포시 중문 관광 후 흑돼지 맛집까지, 하루 관광코스 추천 김순덕 duck@betanews.net 기사 입력 : 2017-05-26 17:14:54 본격적인 여름 휴가철을 앞두고 이맘때부터 제주도에는 관광객들로 붐비기 시작한다.  제주도는 이국적인 모습으로 우리나라를 대표하는 휴양 섬이자 관광지로, 제주도의 어디를 가든지 아름답고 새롭지만 그 중에서도 제주도 관광의 꽃이자 핵심은 ‘중문관광단지’이다. 세계적 수준의 종합관광휴양단지로 자연이 만들어낸 제주도만의 풍경과 절경, 각종 테마의 박물관 관람과 문화체험, 맛집 탐방까지 가능한 ‘중문관광단지’는 제주도 여행의 하루 관광코스로 손색이 없다.첫 번째 필수 관광코스는 ‘대포해안 주상절리대’와 ‘천제연 폭포’.몰아치는 파도가 암벽과 부딪혀 만들어낸 ‘주상절리’의 거대한 절경과, 위에서 아래로 쏟아져 내려오며 만들어낸 ‘천제연 폭포’의 환상적인 모습을 보면 대 자연의 신비로움과 아름다움에 매료될 수밖에 없다. 주상절리 두 번째는 초콜릿랜드, 테디베어박물관, 아프리카박물관 등 다채로운 주제로 만들어진 박물관 관람이다. 호기심과 상상력을 자극하는 전시물과 재미있는 요소들이 풍부해 사진을 찍어 추억으로 남기기에 좋다. 천제연폭포 그 외에도 아이들과 함께 하는 가족여행이라면 더욱 추천할만한 ‘퍼시픽랜드’와 ‘여미지식물원’ 관람을 추천한다. 여미지식물원 바다사자와 돌고래를 직접 보고 체험할 수 있는 ‘퍼시픽랜드’와 서울 도심에서는 보기 힘든 여러 종류의 식물들을 한꺼번에 견학할 수 있는 ‘여미지식물원’ 관람은 아이나 어른 모두에게 색다르고 소중한 경험이 될 것이다. 퍼시픽랜드 마지막은 흑돼지 맛집에서 즐기는 맛있는 추억 만들기다. 중문동에 위치한 복분자를 뿌린 흑돼지 전문점 ‘돈가득’은 제주도산 품질 좋은 흑돼지에 복분자를 뿌려 잡내를 없앤 후 참숯에 굽는다. 은은한 참숯 향과 복분자 향을 머금은 흑돼지 맛으로 지역 주민들뿐 아니라 관광객들의 입맛까지 사로잡은 ‘돈가득’은 최근에 MC 김경식과 사유리가 진행한 MBC에브리원 ‘맛있을 지도’ 방송에도 소개되어 좋은 반응을 얻은 바 있다. 보통 잘 구워진 흑돼지를 멜젓에 찍어 먹지만, 멜젓 외에 양파와 고춧가루 식초를 함께 넣어 만든 특제 양파절임은 ‘돈가득’만의 자랑이다. 멜젓과는 또 다른 상큼하면서도 깔끔한 맛이 일품이라고 한다. 베타뉴스 김순덕 (duck@betanews.net) Copyrights ⓒ BetaNews.net Google 뉴스피드에 Betanews를 추가하세요. 독점 비디오를 보려면 Youtube에서 베타뉴스TV를 구독하세요 목록 위로 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 종합 &gt;&gt; 도서 교육 연예스포츠 인사 사회 종합 정치 생활문화 개인정보취급방침 회사소개 연혁 찾아오는길 기사제보 광고문의 기사문의 RSS 구독하기 ㆍ(주)베타뉴스 ㆍ제호 : 베타뉴스 ㆍ발행일 : 2001년 9월 29일 ㆍ등록번호 : 서울아00247 ㆍ등록일 : 2006년 9월 8일 ㆍ발행인 겸 편집인 : 이직 ㆍ주소 : 04316 서울시 용산구 원효로 237 화전빌딩 3층 (주)베타뉴스 ㆍ광고문의 : 마케팅국장 김진호 ㆍ청소년보호책임자 : 박미선 ㆍ사업자번호 : 106-86-07377 ㆍ통신판매업 신고 : 용산 제00314호 ㆍ전화 : 02-3211-3040 ~1 ㆍFAX : 02-714-3042 ㆍ문의메일 : leejik@betanews.net Copyright(C) 1999-2017. BetaNews co. ltd. All rights reserved</t>
+  </si>
+  <si>
+    <t>관광숙박시설 허용지역 축소? 제주도의회 “현행대로” 제동 &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 관광숙박시설 허용지역 축소? 제주도의회 “현행대로” 제동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 관광숙박시설 허용지역 축소? 제주도의회 “현행대로” 제동 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2017.05.16 17:33 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 문화관광스포츠위원회, ‘제주도 관광진흥 조례 일부개정안’ 수정 가결제주도의회가 일반주거지역과 자연취락지구에서의 관광숙박시설 신축을 금지하는 조례 개정에 제동을 걸었다. 종전처럼 일반주거지역과 준주거·준공업지역, 자연취락지구를 포함한 자연녹지지역에서 관광숙박시설 신축을 계속 허용하라는 주문인 셈이다. 제주도의회 문화관광스포츠위원회(위원장 김희현)는 16일 제351회 임시회를 속개해 제주도지사가 제출한 ‘관광진흥 조례 일부개정안’을 수정 가결했다.조례 개정안은 관광숙박업 사업계획 승인이 가능한 지역에서 일반주거지역과 자연녹지지역 중 자연취락지구를 제외하는 내용을 담고 있다.주차난, 교통난, 소음 등 주민들의 주거환경 개선을 위해 관광호텔·가족호텔·호스텔 등의 관광숙박시설 신축은 준주거지역과 준공업지역, 자연녹지지역으로 축소하는 등 허용 기준을 강화했다.하지만 의원들은 해당 지역 내 관광숙박업 승인 신청이 많지 않은 점 등을 들어 개정안 실효성에 의문을 제기했다.김희현 위원장(일도2동을, 더불어민주당)은 “지난 4년간 일반주거·자연취락지구 내 관광숙박시설 승인은 각각 10여 건에 불과하고 이들 중 80%가 도민 사업장”이라며 “관광숙박업 과잉공급 문제가 있지만 어느 부분을 줄일 것이냐를 고민해야 한다”고 말했다.또 “조례 개정안이 원안대로 통과하면 대기업이 하는 숙박업은 허가하면서 지역주민들이 하려는 숙박업에 대해서는 제재하는 쪽으로 비춰질 수 있다”며 조례 개정을 통한 정책적 실효성에 의문을 제기했다.김명만 의원(이도2동을, 더불어민주당)도 “2009년 자연취락지구 내 신축을 허용한 이후 실제 상황이 달라지지 않았고 일반주거지역 내 관광숙박업으로 인한 부작용도 없다”며 현행유지 쪽에 힘을 실었다.이에 이승찬 제주도 관광국장은 “주거 및 녹지환경 개선 차원에서 조례안을 개정하려는 것”이라며 “일반주거·자연취락지구 내 관광숙박업 신청이 많지 않아 굳이 신축 허용지역으로 포함할 이유가 없다”고 말했다.수정 가결된 개정조례안은 오는 19일 속개되는 제2차 본회의에 상정돼 표결 절차를 밟게 된다.조례안이 최종 통과되면 관광숙박시설은 종전과 같이 일반주거지역과 준주거·준공업지역, 자연취락지구를 포함한 자연녹지지역에서 계속 신축할 수 있다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>“중국인 관광객들이 제주도로 다시 몰려든다” - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 13℃ 서울 11℃ 인천 12℃ 춘천 14℃ 강릉 13℃ 수원 13℃ 청주 14℃ 대전 15℃ 전주 16℃ 광주 15℃ 대구 15℃ 부산 15℃ 제주 "중국인 관광객들이 제주도로 다시 몰려든다" 새정부가 출범하면서 중국 정부가 사드 보복 조치를 해체하려는 정황이 곳곳에 나타나고 있다. 장영훈 기자 2017-05-21 14:56:02 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 (좌) 온라인 커뮤니티, (우) Facebook[인사이트] 장영훈 기자 = 새정부가 출범하면서 중국 정부가 사드(THAAD·고고도미사일방어체계) 보복 조치를 해체하려는 정황이 곳곳에 나타나고 있다.이에 따라 제주도와 국내 관광업계에서는 '한국여행 금지 조치(금한령)'가 조만간 해제되는 것 아니냐는 기대감을 드러내고 있다.21일 관련 업계에 따르면 중국 여행사들의 한국행 단체관광객 금지 조치가 조만간 풀릴 것으로 내다보고 있다.실제 제주도가 파악한 중국동향을 보면 베이징 현지 한 여행사는 6월 중순쯤 금한령이 풀릴 것으로 보고 관련 상품 프로모션을 준비 중에 있는 것으로 알려졌다.중국 내 영사관에서도 비자를 문의하는 건수가 소폭 증가하고 있는 것으로 전해지면서 빠르면 다음주 단체관광객의 한국 방문이 가능할 거라는 전망까지 나오고 있다.연합뉴스이를 방증이라도 하듯 중국의 사드 보복 타켓이 된 롯데마트의 경우 지난 3월 폐쇄됐던 중국 홈페이지를 두 달여만에 다시 오픈한 상태다.그렇다고 이번 중국 정부의 금한령 해제 가능성과 관련 마냥 좋다고 볼 수는 없다. 상당수 시민들이 중국인 관광객들의 눈살 찌푸리는 행동에 따른 반중감정을 가지고 있기 때문이다. 불과 3개월 전만 하더라도 중국인 관광객들이 버리고 간 포장백들이 제주국제공항 바닥 곳곳에 떨어져 있어 쓰레기장을 방불케하기도 했다.중국정부의 금한령 해제 가능성이 전해지면서 국내 관광객들에게도 영향을 미치고 있다. 실제 제주도로 여행을 갈지말지 고민이라는 것이다. 한편 업계 관계자는 "중국은 그동안 규제를 해오면서도 공식적으로는 '사드보복'에 대해서는 부인했다"며 "한국행 상품 판매 등 자연스러운 방식으로 전개될 것으로 보인다"고 분석했다.연합뉴스중국인이 떠난 뒤 '쓰레기장'으로 변한 제주공항 상황중국인 관광객들이 떠난 후 제주국제공항이 쓰레기장을 방불케하는 모습이 담긴 사진이 공개돼 논란이 일고 있다. 장영훈 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도의회, 논란 많은 오라관광단지 또 ‘심사보류’ : 전국일반 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [단독] 감사원, 국민감사본부 만들어 한 일이 ‘KBS 감사’ 뿐 [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 ‘문자 내통’ 유병호 “송구스럽지만, 그 소통은 정상적인 것” 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야”서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 윤 대통령, 일제고사 부활 선언…“원하는 모든 학교 참여토록” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리 달 남극 탐사, 미-중 경쟁…선점하면 기지 건설도 앞선다재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국전국일반 제주도의회, 논란 많은 오라관광단지 또 ‘심사보류’ 등록 :2017-05-17 15:53수정 :2017-05-17 16:05 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 환경도시위원회, ‘환경 대안 미흡’ 등 이유로 심사보류 지난 4월에도 비슷한 이유로 상정보류 시민단체 등은 도의회 앞에서 부결 촉구 시위 제주지역 최대 개발사업 계획으로 환경파괴 등의 논란이 일고 있는 제주시 오라관광단지 개발사업에 대해 제주도의회가 또다시 제동을 걸었다. 지난달에 이어 두번째다. 제주도의회 환경도시위원회(위원장 하민철)는 17일 제주도가 제출한 ‘오라관광단지 조성사업 환경영향평가 협의내용 동의안’을 상정해 2시간30분 동안 심사를 벌인 끝에 ‘심사 보류’ 결정을 내렸다. 하민철 위원장은 “논란이 많은 오수장과 용수 사용량을 예측하는 과정에서 맞지 않은 부분이 있다. 불가피하게 훼손되는 열안지오름 인근 지역 등 경관적·환경적 측면의 대안마련이 부족하다. 상수도 공급을 통해 지하수 사용을 최소화할 수 있는 방안을 제시해야 한다”고 심사 보류 이유를 설명했다. 이날 회의에서 의원들은 재해대책과 지하수, 오·폐수 처리 대책, 사회경제적 영향 등에 대한 우려와 문제점 지적을 쏟아냈다. 고정식 의원은 “사업예정지는 경사도가 심한데다 태풍이나 집중호우 시 하류지역의 피해가 우려되지만 저류지 관련은 제대로 조치가 이뤄지지 않았다”고 지적했다. 지하수 사용량은 환경영향평가 심의과정에서 이미 허가된 하루 5350t에서 3650t으로 수정했지만, 홍기철 의원은 “오라관광단지의 지하수 취수량이 많을수록 하류지역 용천수가 마르게 될 것”이라며 대책을 주문했다. 김경학 의원은 “중소상공인들은 지역상권이 무너질 수 있다는 우려를 하고 있다. 기존 상권에 미치는 영향 등 사회경제적 영향분석이 필요하다”고 지적했다. 도의회 환경도시위원회 전문위원실은 검토보고서에서 “공사 중 필요한 용수에 대한 사용량을 예측하지 않아 적절한 용수 공급계획이 부족하고, 오수발생량 산정은 지난해 9월 광역하수도 정비 기본계획이 변경돼 과거의 오수발생량 예측값이 큰 차이를 보일 것으로 판단돼 재산정이 필요하다”고 밝혔다. 검토보고서는 또 “사업예정지 경계를 기준으로 하면 한라산 천연보호구역과 650m 떨어진 것으로 나와 공사 중 소음과 진동, 비산먼지, 6만명이 넘는 인구 유입 등에 따른 대책이 필요하다”고 지적했다. 제주오라관광단지 조성사업은 중국계 자본인 제이씨시㈜가 6조2800억원을 들여 2021년까지 제주시 오라2동 산46-2 일대 357만5753㎡에 숙박시설 3570실을 비롯해 골프장, 국제회의장 등을 개발하는 사업이다. 이날 도의회 앞에서는 제주시민사회단체연대회의와 시민들이 동의안 부결 처리를 촉구하는 손팻말 시위를 벌였다. 앞서 도의회 환경도시위원회는 지난 4월에도 오라관광단지가 제주도 개발사상 최대 규모의 개발사업으로, 환경훼손 우려와 함께 지하수 사용에 따른 용출수 고갈 문제 등을 들어 상정 보류한 바 있다. 허호준 기자 hojoon@hani.co.kr 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. ‘노모 생신’ 시골에 모였다가 일가족 5명 숨져…“일산화탄소 중독” 3. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 4. 무등산 정상 복원하려는데…군부대 주둔 전 사진이 없다 5. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 말레이 레저·스포츠 업계 팸투어 실시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 말레이 레저·스포츠 업계 팸투어 실시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 말레이 레저·스포츠 업계 팸투어 실시 정용기 기자 승인 2017.05.24 14:31 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=정용기 기자] 제주특별자치도관광협회(회장 김영진)는 지난 20일부터 24일까지 말레이시아 레저·스포츠 주요여행사 상품 개발 관계자 및 스포츠 전문매체 기자 등을 초청해 제주 레저·스포츠 관광상품 개발을 위한 팸투어를 실시했다.이번 팸투어는 말레이시아 언론매체와 스포츠 동호회원이 직접 제주 레저·스포츠 행사를 경험하고 이를 통해 도내 레저·스포츠 관광이 활성화될 수 있도록 하기 위해 기획됐다.제주도관광협회는 지난 21일 열린 제22회 제주국제관광마라톤축제를 비롯해 자전거 라이딩, 올레코스 등의 행사에서 현장취재를 도와 도내 레저·스포츠 관광객 유치를 위한 네트워크를 구축했다.제주도관광협회는 현지 전문여행사와 언론매체 등의 도내 대형 이벤트 및 관광자원 답사를 통해 실질적인 관광 상품 개발로 향후 레저·스포츠즐 즐기는 특수목적관광객(SIT) 유치를 극대화 시킬 수 있을 것으로 기대하고 있다.제주도관광협회 관계자는 “해외시장 다변화 및 고부가가치 레저·스포츠 관광상품 개발을 위해 여행업계 상품기획자를 대상으로 관광객 유치를 모색하겠다”고 말했다. 정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>[화제의 분양현장]제주도 원스톱 관광 이끄는 랜드마크… “미래가치에 투자” 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|경제 [화제의 분양현장]제주도 원스톱 관광 이끄는 랜드마크… “미래가치에 투자” 김민식 기자 입력 2017-05-19 03:00업데이트 2017-05-19 03:00 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 제주 드림타워 복합리조트 제주 드림타워 복합리조트 조감도부동산 활황 지역이었던 제주도 부동산시장이 숨고르기에 들어갔다. 단기간 뜨겁게 달아오른 데 따른 피로감과 공급 과잉, 외부적인 영향 등으로 주춤한 시장 분위기가 최근 들어 이어지고 있는 상황이다. 하지만 업계 전문가들은 지금의 상황은 일시적인 것이기 때문에 물량 소화과정을 겪으면서 다시 상승세를 탈 것으로 보고 있다. 제주도의 경우 현재 개발단계 지역이기 때문에 앞으로 조성될 인프라 등을 따졌을 때 미래 가치가 매우 높다는 것이다. 제주도가 16개 시도 중 가장 높은 상가수익률을 보이며 수익형 부동산의 활황기를 누리고 있는 것도 이러한 이유에서다. 실제로 한국감정원 자료를 보면 지난해 전국 16개 시도 중 중대형상가 투자수익률이 가장 높은 지역은 제주도(8.95%)로 가장 낮은 충북(4.69%)과 비교했을 때 2배가량 차이가 난다. 특히 제주도의 지난해 수익률은 2015년보다 1.1% 상승한 결과로 전국에서 유일하게 1.0% 이상 오른 지역이다. 또한 최근 불거진 중국의 사드 보복으로 제주를 방문하는 중국인 관광객이 감소한 듯 보였으나 이러한 현상 역시 일시적인 것이라고 보는 시각이 우세하다. 제주관광공사 자료를 보면 1월 제주도를 방문한 외국인 관광객은 21만5557명으로 이는 지난해 1월(16만5243명)보다 30.4% 증가한 수치다. 특히 중국인 관광객의 경우 지난해 1월 14만2133명에서 올해 1월 18만4306명으로 오히려 29.7% 증가했다. 업계 전문가는 “사드 보복이 해제된 후에는 제주도를 방문하는 중국인 관광객 수가 더욱 반등할 것으로 보이며, 중국의 여권 보급률이 전체 인구의 5% 수준인 것을 감안했을 때 앞으로의 잠재적 관광객의 방문까지 더해지면 지금보다 훨씬 많은 관광객이 유입될 것으로 예상된다”며 “현재 제주도는 계속해서 인구 증가가 이뤄지고 있고, 그에 따른 인프라 공급도 지속적으로 이뤄지고 있어 미래 가치를 생각한다면 지금이 투자의 적기로 보인다”고 말했다. 이러한 가운데 제주의 노른자 땅인 노형동에 랜드마크급 복합리조트가 들어서 투자를 원하는 수요자들의 관심을 한 몸에 받고 있다. 롯데관광개발과 녹지그룹의 자회사인 그린랜드센터제주가 제주시 노형동 925에 조성하는 ‘제주 드림타워 복합리조트’는 제주도의 원스톱 관광을 이끄는 랜드마크로 자리매김할 예정이다. 제주 드림타워 복합리조트는 지하 6층∼지상 38층에 5성급 호텔(750실) 및 호텔레지던스(850실), 디자이너 부티크 쇼핑몰, 호텔 부대시설, 위락시설(외국인전용 카지노), 글로벌레스토랑 등 총 30만3737m² 규모로 이뤄진다. 복합리조트 지하 5층∼지하 2층에는 주차장(1415대)이, 1층에는 차량 승하차장, 로비, 퍼블릭 플라자(야외광장), VIP플라자(VIP고객 전용출입구)가 들어서며, 2층에는 위락시설(외국인전용카지노)이, 3∼4층에는 디자이너 부티크 쇼핑몰이 들어설 계획이다. 지상 6층에는 실내수영장 및 스파 등 호텔 부대시설과 8층에는 야외수영장 및 자쿠지 카바나 등으로 구성된 풀덱이 조성되고, 호텔 타워 8∼37층에는 객실이, 호텔 타워 38층에는 레스토랑 등으로 구성된 스카이덱이크가 들어선다. 한편, 현재 분양 중인 호텔레지던스 850실은 호텔레지던스 타워 8∼38층에 위치하며 △전용면적 65m² 규모의 스탠더드 스위트 802실 △전용면적 136m² 규모의 프리미어 스위트 48실로 구성된다. 수분양자는 20년간 분양가의 5%를 확정수익(부가세 포함)으로 지급받는 동시에 연간 24일 무료로 객실을 사용할 수 있다. 객실을 사용하지 않을 경우 연 6%를 확정수익(부가세 포함)을 지급받는다. 또한 롯데관광개발은 분양하는 호텔레지던스 전 객실에 20년 임차기간 중 8년마다 리노베이션을 무상으로 제공할 예정이다. 특히 롯데관광개발은 수분양자들의 불안감을 불식시키기 위해 20년간 수분양자에게 운영여부와 상관없이 확정수익으로 지급한다는 내용과 여름휴가철 100% 객실예약 보장, 금요일과 토요일에 한해서만 주말을 적용하는 내용을 담은 보증서를 계약자에게 발급할 계획이다. 더불어 5성급 호텔 750객실과 호텔레지던스 850객실, 제주 최대 규모 쇼핑몰, 10개의 글로벌 레스토랑, 호텔부대시설 등을 단일 사업자인 롯데관광개발이 직접 소유하고 통합 운영해 여기서 발생한 전체 운영수익을 호텔레지던스 수분양자에게 우선 지급해 안정성을 높였다. 분양 관계자는 “제주 드림타워 복합리조트는 제주도의 미래 가치를 더욱 높이는 촉매제 역할을 하게 될 것으로 기대된다”며 “기존의 수익형 부동산과는 차원이 다른 수익구조로 안정적인 수익을 지급하는 것은 물론이고 제주도의 미래 가치까지 손 안에 쥘 수 있어 더욱 가치 있는 투자상품이 될 것”이라고 설명했다. 김민식 기자 mskim@donga.com#제주#드림타워 복합리조트#제주도 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 2 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 3 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 4 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 5 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 6 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 7 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 8 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 9 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 10 “中 대만침공땐 美, TSMC 부수고 철수” 보도에 대만 내부 “TSMC 파괴는 절대 용납못해” 반발 최신기사 서울청 “‘성상납 무마 의혹’ 이준석 조사…이른 시일 내 마무리” [단독]‘제트기류’에 美뉴욕발 직항편 중간 착륙…‘테크니컬 랜딩’ 늘어날수도 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 ‘안전운임 일몰제 폐지 요구’ 화물연대, 총파업 결의 예고 이란 석유·가스 노동자들도 반정부 시위 가세…“총성·폭발음 들려” 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 5 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도의회 제351회 임시회 개최…오라관광단지 사업 이목 '집중' :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도의회 제351회 임시회 개최…오라관광단지 사업 이목 '집중' 등록 2017.05.15 15:27:03 작게 크게 【제주=뉴시스】조수진 기자 = 신관홍 제주특별자치도의회 의장이 15일 오후 도의회 본회의장에서 제351회 임시회의 개회를 선언하고 있다. 2017.05.15. susie@newsis.com【제주=뉴시스】조수진 기자 = 제주특별자치도의회(의장 신관홍)가 15일 제1차 본회의를 시작으로 오는 19일까지 제351회 임시회를 진행한다. 신관홍 의장은 이날 오후 제주도의회 본회의장에서 열린 개회식에서 “5일간의 회기를 통해 조례안과 동의안 등을 처리하고 현장을 방문해 도민에게 한 걸음 더 다가서는 민생의정을 펼치고자 한다”며 개회를 선언했다. 신 의장은 “문재인 대통령이 취임하면서 제주 현안에 대한 정책 기조에도 큰 변화가 예상된다”며 “대통령의 제주 공약이 모두 실현되도록 전방위적인 노력을 펼쳐야 한다”고 강조했다. 이어 “제주 도정은 제주특별자치도의 헌법적 지위 부여, 4·3의 완전한 해결, 강정마을 주민의 구상권 철회, 제2공항 개항 지원 등 제주 공약이 국정 과제에 반영될 수 있도록 다각적인 노력을 해달라”고 당부했다. 또 “교육당국에서도 고교체제 개편, 국립 해사고의 설립 등 교육 현안들이 새 정부의 방침과 연계될 수 있도록 노력을 기울여 달라”고 덧붙였다. 이번 회기에서는 제주해녀를 지원하기 위한 ‘해녀어업 보존 및 육성에 관한 조례안’, 관광숙박업의 승인기준을 조정하는 ‘관광진흥 조례 일부 개정안’ 등 안건 22건이 상정될 예정이다. 특히 오는 17일 도의회 환경도시위원회 회의에서 다뤄질 ‘제주 오라관광단지 조성사업 환경영향평가서 협의내용 동의안’의 경우 지난 회기 때 상정이 보류됐던 건이라 도민 사회의 이목이 더욱 집중될 전망이다. 이날 위원회는 제주시 오라동에 위치한 사업 예정 부지의 지리적 특성에 따른 용천수의 고갈 위험과 하류 지역의 홍수 피해 가능성 등을 집중적으로 논의할 계획이다. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도의회 임시회 개회…오라관광단지 심사 '촉각' 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도의회 임시회 개회…오라관광단지 심사 '촉각' (제주=뉴스1) 오미란 기자					| 2017-05-15 15:41 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 15일 오후 제주도의회 본회의장에서 제351회 임시회 제1차 본회의가 열리고 있다.(제주도의회 제공)© News1 제주도의회가 15일부터 19일까지 5일 간의 일정으로 제351회 임시회에 돌입했다.이번 임시회에서는 '제주도 빅데이터 활용에 관한 조례안' 등 9건의 의원 발의와 원희룡 제주도지사와 이석문 제주도교육감이 제출한 조례안 13건 등이 다뤄질 예정이다.이 중 가장 이목이 집중되고 있는 것은 지난 회기 때 '철저한 검증'을 이유로 상정 보류된 '제주 오라관광단지 조성사업 환경영향평가 협의내용 동의안' 심사다.JCC가 추진하는 오라관광단지 조성사업은 오는 2021년까지 6조2800억원을 투입해 제주시 오라2동 일대 350만㎡ 부지에 컨벤션센터·호텔·분양형 콘도·면세백화점·실내형 테마·워터파크·골프장 등을 조성하는 사업이다.단일 개발사업으로는 제주 역사상 최대 규모인 데다 개발예정지가 한라산국립공원 밑 해발 350~580m에 위치해 다양한 환경영향이 예상되면서 지역주민과 시민단체 간 의견이 극명하게 갈려 온 사업이기도 하다.안건이 이번 회기로 넘어오면서 소관 상임위원회인 환경도시위원회는 지난 12일 정책 토론회를 열고 전문가와 지역주민들의 여론을 다시 수렴했으나, 찬반이 여전히 팽팽히 맞서고 있어 오는 17일 심사도 어려움이 예상되는 분위기다.관광숙박업 승인 기준을 강화하는 내용의 '제주도 관광진흥 조례 일부개정안'도 관심사다.이 개정안이 통과되면 관광호텔과 호스텔 등의 관광숙박시설은 더 이상 도내 일반주거지역과 지연취락지구에 지을 수 없다. 도내 준주거지역과 준공업지역, 자연녹지지역 등에만 신축이 허용된다.이 외에 이번 임시회에서는 △오라2동 연북로 빌라단지 진입로 가감차로 설치 청원 △삼성초 인근 무인텔·유흥가 정비 요구 진정 △우도 도항선 차량 총량제 제한 진정 등도 다뤄질 예정이다. mro1225@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>[로컬 브리핑] 제주관광공사·제주도관광협회, 디스커버 뉴 제주 참여 업체 모집-국민일보 시사 시사 &gt; 전체기사 [로컬 브리핑] 제주관광공사·제주도관광협회, 디스커버 뉴 제주 참여 업체 모집 입력 : 2017-05-24 20:09 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주관광공사·제주도관광협회는 해외 개별관광객 유치 활성화를 위해 31일까지 ‘디스커버 뉴 제주(Discover New Jeju) 캠페인’에 참여할 업체를 모집한다. 캠페인에서는 여행사·관광지·뷰티샵 등 다양한 분야의 업체들이 개별관광객을 위해 관광정보를 제공하고, 그 정보를 한데 모아 온·오프라인을 통해 홍보하게 된다. 서비스 정보는 4개 국어로 제작된 쿠폰북에 실려 해외광고·현지설명회·마케팅 홍보자료 등으로 활용된다. 공사는 다음달 19∼30일 2차 참여업체를 모집할 예정이다. GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
+  </si>
+  <si>
+    <t>시민단체 "민주당 제주도당 오라관광단지 중단 당론 정하라" - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 시민단체 "민주당 제주도당 오라관광단지 중단 당론 정하라" 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 시민단체 "민주당 제주도당 오라관광단지 중단 당론 정하라" 제주CBS 문준영 기자 메일보내기 2017-05-15 14:48 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주 시민단체가 더불어민주당 제주도당에 오라관광단지 개발 사업 중단을 당론으로 정할 것을 촉구하고 나섰다. 제주시민사회단체연대회의는 15일 성명을 내고 "문재인 정부의 공약으로 비춰볼 때 오라관광단지 사업은 문재인 정부의 공약을 정면으로 부정하는 사업"이라며 이같이 밝혔다.이들은 "오라관광단지는 환경총량제를 대입할 경우 사업부지의 92%가 오름과 하천, 중산간 지역이라 개발이 불가능한 지역"이라며 "제주도의 환경도시위원회는 이번 동의안을 당연 부결시켜야 한다"고 말했다.제주도의회 환경도시위원회는 오는 17일 오라관광단지 개발사업 환경영향평가 동의안과 관련한 심의를 진행한다. 이번 심의는 지난 심의보류 결정을 내린 뒤 한 달 만에 재개되는 것이다. 시민사회단체연대회의는 "지역사회에 큰 영향을 미칠 수밖에 없는 지하수 과다사용에 따른 지하수 영향문제를 시작으로 교통 혼잡문제, 과다한 하수와 쓰레기 발생에 따른 처리문제, 에너지 과다 사용문제, 기존 구도심상권에 미칠 피해에 대해서는 그 어떤 대안적 제시도 없다"며 사업 중단을 촉구했다.또 "오라관광단지 개발사업 부지 내에 한천과 병문천이 위치하고 개발사업 공사에 따라 물이 스며들지 못하는 불투수층이 증가할 수 있음을 확인했다. 결국 많은 비가 내릴 경우 빗물이 지하로 침투하지 못하여 상당량이 한천과 병문천으로 유입될 가능성이 제기됐다"며 "하지만 현재 사업자의 계획에는 이런 부분이 구체적으로 검증되지 않았다"고 강조했다.일자리와 지역경제 문제도 지적했다. 이들은 "일자리 문제는 사업자가 선정해 놓은 1만여명의 고용창출은 안타깝지만 환상에 가까운 수치에 불과하다"며 "이미 한국은행 제주본부와 호남지방통계청의 통계와 분석에 의하면 제주지역의 일자리 질은 전국 최악의 수준이고, 지난 수년간 관광객이 크게 증가하면서 관광관련 분야의 창업이 크게 늘었으나 역설적으로 관광산업의 특성으로 인한 단시간 노동수요가 크게 증가해 일자리의 질이 오히려 후퇴했다는 평가를 하고 있다"고 말했다.또 "결국 오라관광단지가 운영될 경우 음식업과 숙박업 관련 비정규직 노동자들의 대거 이탈과 유입으로 인한 지역 고용시장의 심각한 불균형을 불러 올 가능성이 매우 높다"고 덧붙였다. 오라관광단지에서 운영될 초대형급 쇼핑몰과 상가시설들은 동문시장과 칠성통시장, 중앙지하상가 등의 원도심 상권은 물론 신제주 지역상권에도 크게 영향을 미칠 것이라고도 지적했다.이들은 "더불어민주당 제주도당의 역할이 더욱 막중하다. 문재인 정부는 제주도지역 공약사항으로 제주도를 지속적인 성장과 생태국가 시범지역으로 선정해 환경총량 내 개발과 제주 생태 공유화를 보장하는 특별자치도 체제로 전환하는 것을 목표로 삼고 환경총량제 전면실시와 한라산국립공원 확대 등을 공약으로 내세웠다"며 문 정부의 공약으로 볼 때 오라관광단지 사업을 이뤄질 수 없다고 강조했다. 오라관광단지 개발사업은 중국계 자본 JCC(주)가 제주시 오라2동 일대 357만5000㎡ 부지에 오는 2021년까지 6조2800억 원을 투자하는 개발사업이다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 이복현 금감원장 "불확실성 상시감시, 금융시스템 안정 최선" 러, 우크라 폭격 '보복' 인정…"푸틴 자존심 상처 때문" "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" '택시 연 매출, 배달업의 1/3에 불과' 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" 제주CBS 문준영 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>노동당·녹색당·정의당 제주도당, 오라관광단지 중단 촉구 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 노동당·녹색당·정의당 제주도당, 오라관광단지 중단 촉구 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 노동당·녹색당·정의당 제주도당, 오라관광단지 중단 촉구 제주CBS 박정섭 기자 메일보내기 2017-05-16 16:57 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 16일 공동논평, 사업 전면 재검토 촉구 노동당 제주도당과 제주녹색당, 정의당 제주도당 3당은 16일 공동논평을 내고, 오라관광단지 개발사업의 중단과 전면 재검토를 촉구했다. 이들 제주지역 3개 정당은 "기회는 평등할 것이고, 과정은 공정할 것이며, 결과는 정의로울 것"이란 문재인 대통령의 취임사를 내세워 "오라관광단지 개발사업의 진행과정이 과연 공정했느냐"고 반문했다.이들은 "오라관광단지 개발로 인한 한라산 생태계 파괴 등 다양하게 제기된 문제들에 대한 해결책없이 찬반 토론회만 개최한다고 사업이 공정하게 진행됐다고 할 수 없다"며 공정성에 의문을 제기했다.또 "오라관광단지는 오름과 하천 등 개발이 불가능한 지역이 92% 차지하고 있다"며 "오름과 하천은 사유화할 수 없는 공유자산인만큼 현 세대 모두에게 평등하게 제공돼야 하고, 미래세대까지 고려돼야 한다"고 주장했다.이에 따라 "지금이라도 사업진행을 전면 중단하고 사업추진 과정에서 제기된 문제점을 중심으로 사업을 전면 재검토하는 일이 우선 돼야 한다"며 도의회와 제주도의 공정한 사업 진행을 촉구했다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 이복현 금감원장 "불확실성 상시감시, 금융시스템 안정 최선" 러, 우크라 폭격 '보복' 인정…"푸틴 자존심 상처 때문" "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" '택시 연 매출, 배달업의 1/3에 불과' 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>외국인 관광 활성화 협약한 제주도와 한국공항공사 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 하단 메뉴 바로가기 국가기간뉴스통신사 연합뉴스 배너 검색 영역 뉴스, 포토, 영상, 그래픽을 검색하실 수 있습니다. GO 비주얼 뉴스홈 영상 영상홈 영상뉴스 사건재구성 한반도N 많이본영상 날짜별영상 포토 포토홈 정치 북한 경제 산업 사회 전국 세계 문화 연예 스포츠 모멘트 화보 #D 그래픽 검색 열기 검색 닫기 포토홈 외국인 관광 활성화 협약한 제주도와 한국공항공사 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 (제주=연합뉴스) 한국공항공사 제주지역본부 강동원 본부장, 제주도 이승찬 관광국장, 제주관광공사 최갑열 사장(사진 왼쪽부터)이 12일 제주웰컴센터에서 '제주관광 시장 다변화 및 제주국제공항 활성화를 위한 상호협력 업무협약'을 체결한 후 협약서를 보이며 기념 촬영하고 있다. 2017.5.12 [제주도 제공=연합뉴스] koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/05/12 13:59 송고 '오늘부터 개량백신 접종 시작'…60세미만도 잔여백신 접종가능 10-11 09:57 '감사원 국감, 시작 9분만에 파행'…비어있는 의원석 10-11 10:45 '가을 위에 내려앉은 겨울'…태백 만항재 10-11 10:22 후나코시 다케히로 日 외무성 국장, 한일국장급협의 참석 10-11 10:29 코스피 장중 2,170대로 뒷걸음…원/달러 환율 1,430원대 10-11 09:29 댓글쓰기 맨위로 전체메뉴 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 사람들 인사 부고 동정 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 이슈돋보기 주요신문톱뉴스/사설 이 시각 헤드라인 날씨/재난 날씨 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이 본 뉴스 모바일 뉴스 모바일앱 모바일웹 비주얼뉴스 #흥 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷 맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 유튜브 연합뉴스 통통컬처 Korea Now 한반도N 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로2길 25 | 등록번호 문화, 나00009 | 등록일자 1980.12.29 | 발행일자 1980.12.29 | Tel. 02-398-3114 (C) Yonhapnews [대표이사] 성기홍 [편집인] 조채희 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 카카오스토리 서비스안내 전체보기 서비스안내 전체보기 닫기 연합뉴스 연합뉴스TV 인포맥스</t>
+  </si>
+  <si>
+    <t>중국자본 위한 오라관광단지 개발은 제주도의 재앙이다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:39 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 중국자본 위한 오라관광단지 개발은 제주도의 재앙이다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 중국자본 위한 오라관광단지 개발은 제주도의 재앙이다 양시경 iheadline@hanmail.net 승인 2017.05.19 11:26 댓글 3 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × [기고] 양시경 제주경실련 공익지원센터장 제2차 제주국제자유도시개발계획(2012년~2021년)에는 이런 대규모 오라관광단지개발개획은 없었다. 2015년 중국자본이 옛 오라공동목장부지를 3.3㎡당 49,141원에 매입하면서부터 시작되었다. 토지가격이 급등하기 시작한 시점에 3.3㎡당 5만원도 안된 토지는 사실상 개발행위를 할 수 없는 토지이다.실제로 제주도민이 문제의 토지에 숙박시설이나 상업시설을 개발하겠다고 했을 때 개발인가가 불가능한 곳이다. 그러나 원희룡도정은 제주도개발을 구멍가게 운영하듯이 중국자본에 특혜를 주고 있다. 오라관광단지를 개발하겠다는 JCC(주)는 개발인허가를 받기위해 막대한 자금을 들여서 환경영향평가를 한다. 개발사업자가 수행하는 환경영향평가는 개발을 정당화하기위한 모든 자원을 동원해서 개발을 합리화시킨다. 문제는 이런 환경영향평가를 제주도행정이 선출한 환경영향평가심의위원들이 한다. 이번 오라관광단지 환경영향평가는 제대로 세밀하게 환경영향평가를 하지 못했음이 많이 드러나고 있다. 그럼에도 환경영향평가심의를 통과했다는 것은 제주도지사가 묵시적으로 오라관광단지개발을 인가해주려는 의도가 크게 작용하고 있다고 판단된다. 이점에서 원희룡지사는 제주도민의 이익을 위해 봉사하는 도지사로서 자격을 상실했다고 본다. 제주도지사는 적법절차를 논할 것이 아니라 상식적 가치판단을 우선해야했다. 2015년 제주도 산하 연구기관인 제주발전연구원에서 숙박업수급분석과정에서 2018년도에는 관광숙박업이 과잉공급 되어 4,330실이 남아돈다는 연구용역결과가 나왔다. 그럼에도 불구하고 제주도의 생명줄과 다름없는 한라산 중산간 핵심지역에 천혜의 자연을 파괴하며 제주 칼호텔 12배 규모의 3,570실의 숙박업을 인가해주는가. 숙박업이 과잉공급 되어 문제가 발생되어 시급히 해결해야 할 시점에 오히려 천혜의 자연을 망가뜨리며 중국자본에 3,570실이 숙박시설을 인가해 주겠다는 것은 제주도민을 위한 제주도지사가 아니라 중국자본에 종속된 제주도지사임을 선언하는 꼴이다. 10년 전만 해도 숙박시설이 부족해서 정책적으로 장려했었다. 그러나 지금은 너무 과잉공급 되어 억제하며 조정해야할 형편이다. 제주도는 자영업비중이 전국 최고수준이다. 영세자본으로 소규모가게 등을 경영하면서 약 12만가구가 생계를 이어가고 있다. 이런 마당에 오라관광단지에 지하상가 40배 규모(축구장 30배)의 쇼핑센타가 만들어진다면 영세 자영업자들은 어떻게 생존해야 할까. 제주도는 해발200고지 아래에도 개발 가능한 토지가 아직도 많다. 그런데도 중국자본이 해발 350고지 이상인 오라관광단지를 고집하는 이유는 너무나 단순하다. 토지가격이 저렴해서 개발이익이 수 백배 발생되기 때문이다. 실제로 JCC(주)회장은 “오라관광단지가 개발되면 3.3㎡당 1천만원 이상 된다”고 장담했다. 만약 오라관광단지개발이 최종 인가가 난다면 오라관광단지와 유사한 위치 토지소유자들이 우리도 관광개발 하겠다는 민원이 쇄도할 수 있다. 형평에 맞게 행정을 처리하기위해서는 개발인가를 안 해줄 수 없다. 그러면 한라산 중산간 생태계와 경관, 지하수, 오수 등이 함께 심각한 문제가 발생할 수 있다.지난 17일 제주도의회 환경도시위원회는 오라관광단지개발 환경영향평가를 2번째 심의 보류했다. 제주도의회 환경도시위원회는 심의 보류가 아니라 부결시키고, 엉터리로 환경영향평가심의에 가담한 관련된 공직자들을 문책요구 해야 한다. ▲ 양시경 제주경실련 공익지원센터장. 중국에 진출한 우리기업들은 사업장 부지를 장기임대로 사용하고 있다. 그런데 왜 우리는 귀한 천혜의 보존해야 할 토지를 중국자본에 헐값에 팔아야 하는가. 무력을 동원해 우리 조상들을 피 눈물 나게 만들었던 중국인들이 지금은 자본을 앞세워 우리들에게 한없이 큰 고통을 안겨 주지 않을지 심히 걱정된다. 도의회 환경도시위원회에서 오라관광단지개발에 대해 심의하는 날 노형 오거리에서 땡볕을 받으며 회원들과 교대로 1인 시위를 했다. 그리고 다짐했다. 많은 어려움이 있어도 제주도에 재앙으로 다가올 오라관광단지개발의 진실을 제주도민과 국민들에게 알려 모든 수단과 방법을 동원해서 막아내겠다고 굳게굳게 다짐했다. &lt;양시경 제주경실련 공익지원센터장&gt;*이 글은 헤드라인제주 편집방향과 다를 수 있습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 양시경 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 도의회, 난개발 논란 '오라관광단지' 구체적 보완자료 요구 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 3 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 제주바당 2017-05-19 14:41:26 | 125.***.***.109 더보기 삭제하기 수정하기 미국자본,유립자본은 축복이고 중국지본은 재앙입니까? 중국에 대한 악감정을 주관적으로 대입시킨 것 같습니다. 환경영향평가 심의위원을 도에서 임명하지 않으면 시민단체에서 임명해야 합니까? 심의위원들도 최고의 전문가 분들이실텐데 엉터리 심의라 단정하고 가담한 공직자 문책하라니요. 무슨 제주도에 사업투자하는데 옛시대 침략역사까지 거론하십니까? 우리나라를 강점했던 일본도 우리나라, 특히 제주에 투자는 꿈도 꾸지 말아야 하겠네요. 일부 맞는 말씀도 있긴한데 너무 나간 억지주장이 부담스럽습니다. 답글 2 8 14 헛 2017-05-19 13:33:42 | 223.***.***.227 더보기 삭제하기 수정하기 중국은 토지의 국유화로 원칙적으로 국가로부터 토지사용권을 부여받는걸로 압니다. 따라서 본문의 중국진출 국내기업관련 내용은 사실과 다릅니다. 답글쓰기 7 6 제주를 사랑하는 사람 2017-05-19 13:05:43 | 39.***.***.10 더보기 삭제하기 수정하기 자본주의사회에서 중국자본을 재앙이라고 하시다니... 그럼, 환경과 발전을 함께할 방법을 제시하시던가, 중국말고 다른데서 자본을 끌어올 방법을 제시하시던가, 좋은거만 취할려는 이 태도는 뭔가요? 답글쓰기 10 13 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>중문관광단지 둘러본 후 제주도 서귀포 흑돼지 맛집 탐방. &lt; 보도자료 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 보도자료 중문관광단지 둘러본 후 제주도 서귀포 흑돼지 맛집 탐방. 이전 기사보기 다음 기사보기 기자명 박길수 기자 입력 2017.05.18 11:06 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 봄기운이 만연하고 무더운 여름이 다가오는 이맘때면 제주도는 관광객들의 발걸음이 끊이지 않는다.제주도 곳곳에 워낙 가볼만한 곳이 많지만 그 중 서귀포시에 위치한 ‘중문관광단지’는 천혜의 자연 경관과 각종 볼거리가 풍부해 제주도에 가면 꼭 들러야 하는 대표적인 관광 핫 플레이스다. 우선 중문 해수욕장에서 푸른 제주바다를 만끽하고 시원하게 물놀이를 즐긴 후 그 뒤쪽에 위치한 ‘쉬리언덕’에 오르는 것을 추천한다.중문해수욕장 중문 해수욕장은 해변을 따라 여러 호텔들이 들어서 있어 외국인들도 선호하는 해변가로, 서핑과 수상스키 등 레저도 즐길 수 있다.‘쉬리언덕’은 영화 쉬리의 남녀주인공이 대화를 나눈 장소로 유명한데 중문 해수욕장 뿐 아니라 중문 바다의 탁 트인 경관이 아름답고 해질 무렵의 일몰 풍경은 더욱 경관이다.주상절리 두 번째 추천 관광장소는 대포동 지삿개 주상절리. 신이 빚은 최고의 비경이라는 ‘주상절리’는 육각형의 돌기둥이 겹겹이 쌓여 성처럼 우뚝 솟아있는 모양을 지니는데, 자연이 만들어낸 해안 절벽에 거친 파도가 부서지는 모습은 그저 아름답다고 말하기에는 부족할 정도로 거대함과 웅장함을 느끼게 한다. 자연의 신비함 그 자체인 주상절리를 보고 감동했다면 그 다음은 제주도에서 즐길 수 있는 문화체험이 제격이다.테디베어뮤지엄과 아프리카박물관 등 각종 테마별 다양한 박물관이 있어서 꼭 아이들과 함께 여행이 아니더라도 방문하여 구경하고 사진도 찍으며 추억으로 남기기에 좋다.중문 관광단지 마지막 코스는 흑돼지 맛집에서 즐기는 맛있는 관광이다. 제주도의 상징이라고 볼 수 있는 흑돼지, 흑돼지 중에서도 ‘복분자를 뿌린 흑돼지’로 유명한 ‘돈가득’은 기본적으로 제주도산 흑돼지를 국내산 참숯에 굽는다는 자부심 위에 어떠한 잡내도 허락하지 않는 ‘복분자를 뿌린 흑돼지’ 메뉴로 손님들에게 인기가 좋다.또 흔히 떠올리는 흑돼지와 멜젓의 조화 외에 양파와 고춧가루, 식초를 넣고 만든 ‘돈가득’만의 ‘양파절임’이 손님들에게 반응이 좋다.최근에는 MBC에브리원 ‘맛있을 지도’라는 방송에 소개돼 연예인 김경식과 사유리가 다녀갔는데, 까다로운 사유리의 입맛까지 사로잡아 폭풍 먹방을 선보였다는 후문이다.제주도 서귀포시 중문 관광단지의 흑돼지 전문점 ‘돈가득’. 예약 및 문의 가능하다. 박길수 기자 bluysky2002@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 추천뉴스 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 도로 위 달리는 기차 ‘트램’...안전대책 미비 축산물품질평가원 '특공 취지' 역행... 절반이 매도·임대 행렬 한화이글스 안방마님 최재훈 후계자 찾기 3파전 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 인기기사 주간 일간 1 우려가 현실로... 세종시 70대 여성 '전동 킥보드 사고'로 사망 2 충남 공주에 본사를 둔 우석건설 부도 3 대전 서남부종합스포츠타운, 연말 그린벨트 해제 요청 4 제1회 세종시 '어울링 바이크' 투어... 10일 정상 진행한다 5 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 6 10월 둘째 주 아파트 분양일정 7 대전 용문동 1·2·3구역 ‘둔산 더샵 엘리프’ 중소기업 근로자 특별공급 8 [관점] ‘이장우·김태흠 100일’ 권위주의 리더십의 한계 9 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 10 충남도, 사립유치원 교육비 지원 중단되나 1 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 2 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 3 대전 UCLG 총회 아태지부 '네트워킹의 밤' 성료 4 제13회 대전효문화뿌리축제, 3대가 함께 어우러진 안전한 축제로 마무리 5 유성구, 2022 앙코르 실버페스티벌 대성황 6 서산시·태안군, 행안부 특별교부세 55억 확보 7 동구 정다운어르신복지관 제26회 노인의날 기념 경로잔치 8 청양군청 이희진 선수 ‘1cm 차’ 명승부 은메달 9 서산 해미읍성축제 성료···민초의 삶 구현 호평 10 서구 월평2동, 2022 선사마을 축제 성료 실시간 댓글 최신댓글 댓글많은기사 1 뭐때문에 이렇게 화가 나신건지 도통 알수가없네;; 일단 한글부터 좀 제대로 익히시고 말씀을 해주시길.. 학교폭력은 학교랑 경찰이랑 상의하세요 2 자기들이 공무원 하겠다고 민간인 신분을 잠시 내려놓은것 아닌가요? 공무원 하겠다고 하는사람들이 하라는 봉사는 안하고 일은 저질러놓고 손해배상은 나몰라라 하고 말로만 떠들어대고 책임감도없고 일하기는 싫고 탁상 행정은 먼가요 그러고 일반인이 관련 법 일일이 찻자서 대응 하면 괄련 법령이 삭제(소멸) 되는걸 모르세요 발령 받아서 도망가면 끝 3 규종님 응원하고 있어요!! 달도효소 화이팅! 4 건강분야 컨셉 잘 선택하신것 같아요^ 오랫동안 잘 브랜드 만드시길 응원합니다. 5 달도효소^^ 김규종님 응원합니다^^~~ 6 규종오빠 항상 응원해요 7 SS501 김규종. 어제 살림남2 최수종 하희라편에도 나오던데, 최수종하고도 가까운 사이인가요? ㅎㅎ 달도효소는 무엇인가요? 궁금합니다. 아무튼 제2의인생 잘 시작하길 바랍니다 8 언제 이런걸준비했대요? 외디즈 달도효소^^ ㅋㅋ 규종님. 제 2의 사업도 대승하리라 믿어의심치 않습니다. 저도 펀딩하고 먹어볼께요.^^ 9 진짜맛있어요. 달도효소! 오빠의 진심이 느껴집니다.^^ 10 와디즈에 펀딩했어요. 오빠의 진심이 느껴지는 상세페이지 사업가로서도 성공하길 기도합니다 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 5 지방거점국립대 1인당 교육비, 서울대 38.9% 수준 6 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 7 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 8 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 9 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 10 [부고] 박순영(지방분권 세종회의 회장) 씨 별세 하단영역 주요뉴스 대전신일여고, 지역 주민과 함께 하는 ' ‘Gallery 48’ 개관 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 도로 위 달리는 기차 ‘트램’...안전대책 미비 ‘강경젓갈이 상월고구마를 만나다!’ 12일 개막 논산시의회, 개원 100일 맞아...생활밀착형 의정활동 펼쳐 계룡세계군문화엑스포, 국내외 참전용사 및 가족 초청 행사 개최 전교조 대전지부 "갑질 부추기는 이장우 대전시장" 대전 서구 월평도서관 원데이 미디어 클래스 운영 대전 서구, 갈마·둔산·월평도서관 시니어 기초영어 운영 계룡시, 소규모 농업인 시설하우스 지원 추진 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'중국인 떠난 제주도' 국내 관광객이 채운다는데… - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 샘 해밍턴 "아들 윌리엄, 비밀연애중"…장동민 '눈물' 왜? 코스닥 -4% 학살의 날…게임·바이오株 하락폭 키우며 폭락 주차장 '차털이' 하려던 50대, 관리인에 들키자 흉기로 찔러 中배터리 CATL, 올해 3분기까지 '작년 순익' 넘게 벌었다 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 '경제 전쟁'에 韓 반도체 타격"…삼전·하이닉스 파랗게 질렸다 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 샘 해밍턴 "아들 윌리엄, 비밀연애중"…장동민 '눈물' 왜? 코스닥 -4% 학살의 날…게임·바이오株 하락폭 키우며 폭락 주차장 '차털이' 하려던 50대, 관리인에 들키자 흉기로 찔러 中배터리 CATL, 올해 3분기까지 '작년 순익' 넘게 벌었다 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 '경제 전쟁'에 韓 반도체 타격"…삼전·하이닉스 파랗게 질렸다 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 '중국인 떠난 제주도' 국내 관광객이 채운다는데… sns공유 더보기 '중국인 떠난 제주도' 국내 관광객이 채운다는데… 머니투데이 박다해 기자 기자 더보기 sns공유 더보기 2017.05.12 16:27 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 4~5월 내국인 관광객 14% 증가…"중국인 관광객, 대부분 화교가 운영하는 업체 이용" 중국의 사드 보복 여파로 중국인 관광객이 뚝 끊긴 제주도를 내국인 관광객들이 채우고 있다. /사진=뉴스1 "'제주도에 사는 중국 사람이 자국인을 유치해 영업한다'는 말이 있을 정도였죠. 중국인 관광객들이 (입장료를 내야 하는) 사설 관광지를 많이 다니는 것도 아니에요. 무료 관광지나 입장료가 싼 성산일출봉 정도? 외국인 대상 화장품가게는 타격이 있지만 정작 현지 도민들이 운영하는 내국인 관련 업종은 오히려 요즘 더 활짝 웃고 있죠." 제주도에서 여행업체를 운영하는 A씨는 12일 최근 현지 관광업계 분위기를 이렇게 전했다. 사드 배치에 대한 보복으로 중국인 단체 관광객의 발길이 뚝 끊겼지만 반사작용으로 내국인 관광객이 늘어나 오히려 현지 도민들이 운영하는 업체는 활기를 띤다는 것. 실제로 이날 제주도관광협회에 따르면 황금연휴이었던 이달 1일부터 11일까지 내국인은 43만3135명, 외국인 3만750명이 제주도를 방문한 것으로 집계됐다. 내국인은 전년 동기 대비 14.5% 늘었고, 외국인은 72.5% 감소한 수치다. 지난달에도 내국인 관광객은 전년 동기 대비 13.5% 늘어난 120만명이 방문했다. 같은 기간 외국인 관광객은 9만6533명으로 68.6% 줄었다. 제주관광공사는 "중국인 관광객은 국제 정세가 변하지 않는 한 당분간 지금처럼 감소 추세가 이어질 것"이라면서도 "내국인 1%만 늘어나도 중국인 관광객 감소분을 상쇄하는 효과가 있다. 내국인들의 증가세를 기대한다"고 전했다. 제주관광협회 국내여행업분과 간사를 맡고 있는 김대훈 제주로투어 대표는 "기존에 중국인 관광객이 와도 소비하는 곳이 (도민이 운영하는) 내국인 관련 업종이 아니라 대부분 화교계가 운영하는 식당이나 쇼핑몰, 사후 면세점 정도"라며 "실질적으로 도내 관광업계에 미치는 영향이 크지는 않았다"고 설명했다. 중국인 단체 관광객을 유치하는 여행사도 국내 여행사가 아닌 중국 여행사의 제주지점인 경우가 대부분이었다는 설명이다. 김 대표는 "항공 좌석에 여유가 생긴 부분을 내국인 관광객들이 채우고 있다"며 "내국인 관련 업종이나 여행·숙박업계 등은 오히려 긍정적으로 전망하고 있는 상황"이라고 전했다. 제주도는 이번 기회로 해외시장 다변화에도 박차를 가하고 있다. 제주도 관광협회는 6월부터 러시아, 라오스, 일본 등 6개국에 전세기를 띄울 계획이다. 일부 도내업체는 컨소시엄을 구성해 다음달부터 12월까지 한시적으로 러시아, 몽골, 필리핀 등을 잇는 전세기 운항을 추진 중인 것으로 알려졌다. LCC(저비용항공사)업계도 제주와 동남아 등을 잇는 직항편을 새로 편성하는 추세다. 진에어는 지난 10일부터 오는 7월까지 제주와 태국 방콕, 일본 후쿠오카, 라오스 비엔티안, 베트남 하노이 등을 잇는 부정기 항공편을 편성했다. 제주항공은 6월 제주-필리핀 세부 노선을, 이스타항공은 제주-태국 방콕 노선 편성을 검토 중이다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리는 이른바 "빅스텝"을 단행할 것으로 내다보는 것으로 나타났다. 한은이 빅스텝 인상에 나선다면 지난 7월 금통위에 이어 역대 두 번째다. 빅스텝이 현실화되면 국내 기준금리는 현행 연 2.5%에서 3.0%로 오른다.7일 머니투데이가 증권사 애널리스트 10명을 대상으로 조사한 결과, 10명 모두 한은이 오는 12일 기준금리를 0.5%p 올릴 것으로 예상했다. 금통위 내에서 "0.25%p 인상"으로 소수의견이 있을 것이란 답변은... 코스피 -2%, 코스닥 -3%…"언제까지 내려가" 개미들 울상 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 연준 "4.5% 위에서 금리 인상 중단"…경기 둔화 위험 언급 단독 맞춤 패키지로 K원전 수출한다 "빚내 집사라"던 9년 전처럼…얼어붙은 부동산 매수심리 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 생활문화 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 '화물차 음주 사고' 재판받던 중 또 무면허 음주운전…'감형'받은 이유 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 이전 다음 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 부산 빛낸 김유정, '8100만원대' 초호화 드레스 룩…어디 거? 베트남 "'작은 아씨들' 방영 중단해달라"…바로 삭제한 넷플릭스, 왜 韓日 하늘길 열리자 '카지노'도 들썩..실적 반등 기대에 재개장↑ "주얼리만 3.2억?" 블랙핑크 지수, 아찔한 초미니 패션…어디 거 블랙핑크 제니 vs 모델, 클래식한 패션…같은 옷 다른 느낌 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 '91세' 이런 몸 가능?…기네스북 최고령 美모델 파격 화보 [영상] 맨몸의 모델에 스프레이 뿌리니…화려한 의상 등장 '반전' [내일 날씨] 연휴 마지막 비·바람에 체감온도 '뚝'…서울 최저 9도 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 "농진청 쌀 생산량 예측 능력 정확도 높여야" 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 생활문화 마켓 '노벨상 특수' 서점가 활기…아니 에르노 소설 인기 국립현대무용단 '작꾸 둥굴구 서뚜르게', '스텝업' 무대에 K콘텐츠 유럽 판로 확대..'2022 K-콘텐츠 엑스포' 개최 '미지의 땅' 사우디아라비아로 '도슨트 투어' 떠나볼까 [오늘 날씨] 전국 산발적 비·돌풍에 체감온도 뚝…서울 최저 9도 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 JW생명과학, 국내 첫 전용량 종합영양수액제 자동화 라인 가동 SK이노베이션, 이익 개선 방향은 여전-NH투자증권 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 "우울증, 술에 의지" 최강희 연예계 떠난 근황…고깃집 '알바' "남자로 보였는데…" 신봉선, 10세 연상 지상렬과 '썸' 결말은? 박수홍 인터넷뱅킹 ID '조카 이름+생일'…"父 횡령 말도 안된다" 공감 유혜영, '옥중 이혼' 나한일과 재결합했지만…"따로 산다" 왜? 비공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 송일국 삼둥이가 살던 '인천 송도 호수뷰' 아파트…매매가 얼마? "곽도원, 술상 엎고 후배 배우 비하·폭언…가족까지 괴롭혀" 주장 나와 내가 알던 안성기 맞아?…확 달라진 모습에 '건강 이상' 우려까지 공감 "벨 눌러 아이 깨면 환불" 황당 요청에 '주문 취소' 응징한 사장님 비공감 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 이승윤, '자연인' 거액 출연료 왜주나 했더니 "썩은 생선도 먹어" 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 공감 '16살' 정동원, 벌써 한강뷰 집서 자취…"부동산에 직접 전화" 비공감 53세女 "30대 남성들이 너무 대시해"…서장훈 "이해 안돼" '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 이승윤, '자연인' 거액 출연료 왜주나 했더니 "썩은 생선도 먹어" 공감 '16살' 정동원, 벌써 한강뷰 집서 자취…"부동산에 직접 전화" 비공감 '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 the300 핵에는 핵, 30년만 '전술핵 재배치' 가능성…총력 대응 나선다 theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 신화 신혜성, 음주측정 거부 혐의 체포..차량 도난 의심 '충격'[공식] MoneyS 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 IZE 도경수는 '진정' 믿고 볼 만해! 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 9 김유정 'BIFF 반가워요' 28 '아시아 스타 어워즈' ★들의 잔치 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>제주도, 우수관광사업체 모집...홍보 인센티브 혜택 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:39 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 우수관광사업체 모집...홍보 인센티브 혜택 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 우수관광사업체 모집...홍보 인센티브 혜택 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2017.05.15 17:08 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 15일부터 오는 6월 2일까지 우수관광사업체를 모집한다.공모대상은 영업신고 후 1년 이상 경과한 제주에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야를 대상으로 한다. 우수관광사업체 선정은 공모에 신청한 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거치게 된다.주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등 분야별 평가표에 의해 종합적으로 평가한다. 종합점수가 기준 점수를 충족한 경우 평정위원회 심의를 거친다.이전에 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청해 재지정을 받아야 한다.우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여되고, 제주도 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어진다.또 우수관광사업체 고객만족도 조사 등 전문기관의 중간점검을 통해 불편사항과 불만족 서비스 등에 대한 업체 컨설팅 및 현장교육 등의 지원도 받는다.우수관광사업체로 지정을 희망하는 사업체는 제주도 홈페이지(www.jeju.go.kr) 입법.공고.고시 게시판에서 우수관광사업체 지정신청서 등을 다운로드 받아 제주도관광협회(전화 741-8744)에 신청하면 된다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 상반기 우수관광사업체 지정 공모 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 상반기 우수관광사업체 지정 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 상반기 우수관광사업체 지정 공모 기자명 고병수 기자 입력 2017.05.16 02:13 수정 2017.05.16 05:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 관광사업체의 자율적인 경쟁을 통해 품질향상과 서비스 개선 등 관광사업체의 경쟁력을 강화시켜 관광객들의 만족도를 향상시킬 우수관광사업체를 15일부터 6월 2일까지 모집한다고 15일 밝혔다.공모대상은 영업신고(리모델링) 후 1년 이상 경과한 제주도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야를 대상으로 한다.이전에 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청해 재지정을 받아야 한다.우수관광사업체 선정은 공모에 신청한 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거치게 되며 지정 기간은 2년이다.주요 평가 항목으로 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등 분야별 평가표에 의해 종합적으로 평가하며 종합점수가 기준 점수(90점)를 충족한 경우 평정위원회 심의를 거쳐 최종 선정한다. 우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여된다.또한 홍보 인센티브 혜택이 주어지며 올해에는 외국어 리플릿을 제작해 각종 마이스 행사와 연계홍보도 할 예정이다.자세한 공모 내용은 제주특별자치도 홈페이지에서 확인할 수 있다.이승찬 관광국장은 "우수관광사업체의 서비스 등 품질 향상을 위해 고객서비스 평가 결과에 따른 서비스 교육을 처음으로 실시하고 지정된 우수관광 사업체에 대해 홍보 지원 등 인센티브를 확대하도록 노력해 나갈 계획"이라며 "이번 공모에 도내 우수 관광사업체가 많이 참여해 주길 바란다”고 당부했다. 한편 제주특별자치도 우수관광사업체는 현재까지 총 102개소가 지정되어 있다.문의= 제주특별자치도 관광협회(064-741-8744) 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>유승민 "제주도, 관광·문화의 중심지 만들 것" 2022.10.11 (화) 포토·영상 스페셜 최신 IT·과학 IT정책 인터넷 통신/방송 컴퓨팅/보안 IT기기 부품 게임 과학 산업 재계 중기/벤처 생활경제 자동차 부동산 경제 경제정책 증권 금융 경제일반 정치 대통령실 국회/정당 외교안보 정치일반 사회 사건사고 교육 지역 사회일반 인사/부음/동정 문화·생활 공연/전시 출판 여행/레저 라이프 문화일반 생활일반 전국 서울 세종대전충청 경인 제주 호남 영남 글로벌 국제경제 국제일반 연예·스포츠 연예 스포츠 오피니언 데스크칼럼 기자수첩 전문가기고 대통령실 국회/정당 외교안보 정치일반 유승민 "제주도, 관광·문화의 중심지 만들 것" 채송무 기자 입력 2017.05.01 10:35 댓글 쓰기 제주 4.3 배·보상법 제정 및 강정마을 구상권을 철회 약속 [아이뉴스24 채송무기자] 유승민 바른정당 후보가 제주지역에 대해 '자연과 문화, 사람이 조화를 이루는 관광·문화의 중심지'로 만들겠다는 공약을 제시했다.유 후보는 1일 오전 제주 4.3 평화재단 대강당에서 기자회견을 갖고 이같이 밝혔다. 유 후보는 이를 위한 세부 공약으로 ▲글로벌 수준 분권형 지방자치 모델 실현 ▲제주 제2공항 조기 개항 ▲환경중심 도시 조성 위한 경관 복원 ▲하수처리 구역 확대 지정 ▲농축수산물 해상운송비 지원 ▲전기차 특구 지정 및 신재생 에너지 활용한 미래형 도시 구축 등 6대 공약을 내놓았다.우선 유 후보는 그동안 제주도의 상처였던 제주 4.3 사건과 강정마을 구상권 문제를 해결해 평화와 화합을 실현하겠다고 했다. 제주 4.3 배·보상법을 제정하고 강정마을 구상권을 철회하겠다고 약속했다.글로벌 수준의 분권형 지방자치 모델을 완성하기 위한 면세특례제도와 재정지원을 확대하고, 특별자치도에 걸 맞는 핵심특례들을 국가 차원에서 보장하겠다고 했다.포화 상태에 이른 제주 제2공항의 조기 개상도 약속했다. 유 후보는 "제주 제2공항의 조기 개항과 주변지역 발전계획을 함께 수립하고, 연결 교통망을 구축해 제주를 동북아시아의 관광허브로 만들겠다"고 강조했다.자연경관 복원과 환경 보전과 관련해서는 송·배전선이 지중화 추진을 약속했다. 덥루어 하수처리구역을 확대 지정하고 관련 시설에 대한 지원을 대폭 확대해 지하수를 보전하겠다고 했다.마지막으로 유 후보는 "제주는 전국 전기차 등록대수의 약 52%가 보급되고 있는 글로벌 전기차 도시"라며 "전기차 특구 육성에 관한 법률을 제정하여, 제주를 전기차 특구로 지정하고 제도적 지원을 뒷받침할 것"이라고 했다.채송무기자 dedanhi@inews24.com 채송무 기자의 다른 기사 보기 부산 간 유승민 "많이 힘들지만 자신있다" 유승민 "영화·게임, 4차 산업혁명 성장 동력으로" 포토뉴스 뉴스 | 포토ㆍ영상 | 오피니언 | 스페셜 회사소개 | 고객센터 | 광고안내 | 개인정보취급방침 Copyright(c) inews24.com. All Rights Reserved.Please read inews24’s privacy policy. Contact us for more information 모바일 웹 보기 제호 : 아이뉴스24 &amp;nbsp|&amp;nbsp등록번호 : 서울아00107 &amp;nbsp|&amp;nbsp 등록일자 : 2005.11.07 &amp;nbsp|&amp;nbsp 사업자 등록번호 : 120-81-97512 &amp;nbsp|&amp;nbsp 통신판매업 신고 : 2013-서울마포-0342 &amp;nbsp|&amp;nbsp 서울시 마포구 독막로19길 15 BR엘리텔 B동 3층 대표전화 : (02)3347-114 &amp;nbsp|&amp;nbsp 발행인 : 이창호 &amp;nbsp|&amp;nbsp 편집인 : 박동석 &amp;nbsp|&amp;nbsp 개인정보관리 책임자 : 배석강 &amp;nbsp|&amp;nbsp 청소년보호 책임자 : 배석강</t>
+  </si>
+  <si>
+    <t>제주도의회 오라관광단지 도민의견수렴 토론회…입장차 확연 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도의회 오라관광단지 도민의견수렴 토론회…입장차 확연 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도의회 오라관광단지 도민의견수렴 토론회…입장차 확연 기자명 고병수 기자 입력 2017.05.12 21:57 수정 2017.05.12 22:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 박연호 주민대표, “사업승인부서 시민단체지 의회인지 행정인지 가늠할 수 없다" 비난 (제주=국제뉴스) 고병수 기자 = 제주도의회 환경도시위원회는 12일 제주도의회 의원회관 대회의실에서 '제주오라관광단지 조성사업 도민의견 수렴을 위한 정책토론회'를 개최했다.이날 토론회는 제주도정의 토론회에 이어 제주도의회 차원에서 마련한 토론회로 지난 제351회 임시회에서 시민단체들의 강한 반발에 상정 보류돼 도민사회의 의견을 모은다는 취지에서 마련됐다.이번 토론회를 통해 제주도의회 환경도시위는 오는 17일 제351회 임시회 제1차 회의에서 오라관광단지 조성사업 환경영향평가서 동의안을 상정해 심의한다.토론회는 고충석 제주국제대학교 총장이 좌장을 맡았다.패널토론에는 허철구 제주대학교 환경공학과 교수, 고병련 제주국제대학교 토목공학과 교수, 양창헌 제주상공회의소 국제협력분과위원장, 성공훈 대한건설기계협회 제주도회장, 남기영 제주지역상권보호대책위원회 수석부회장, 문상빈 제주시민사회단체연대회의 공동대표, 박연호 오라동발전협의회장, 성현 정실마을 오라관광단지 반대대책추진위원장 등이 참여한다.토론회에서 찬반의 입장이 확연히 갈렸다.일자리 창출과 지역경제 활성화 대 지하수, 하수처리, 과잉 숙박시설 공급 등 환경우려의 목소리로 양분됐다.문상빈 제주시민사회단체연대회의 공동대표 지난번 제주도정 주최한 토론회의 주장을 그대로 내놓았다. 허철구 제주대 환경공학과 교수는 "오라단지 사업 규모가 유사 이래 최대 사업이고, 사업지 위치.지리적 여건이 제주시가지로부터 매우 인접한 거리고 중산간과 한라산국립공원에 인접한 지역"이라며 "지역사회 발전이나 관광산업, 도민의 일자리 창출, 긍정적 효과가 있음에도 불구하고 환경문제나 기타 여러 문제 우려되는 부분은 사실"이라고 주장했다.허 교수는 "단일 사업장이 오염물질을 발생시킬 경우 자체 처리를 위한 노력이 더 뒤따라야 한다“며 :환경보전을 위해 아무리 지나쳐도 부족하다"고 덧붙였다.이에 대해 양창헌 제주상의 국제협력분과위원장은 "세계경제가 급변하고 있다. 선거에도 이슈가 됐지만 4차 산업혁명이 시작됐다. 예측이 불가능하다. 관광시장도 예측이 불가능하다"고 전제하며 "오라단지는 제주의 보물이 될 수 있다"고 강조했다.양 위원장은 "우리도 준비해야 하지만 오라동.오등동 주민들의 삶의 터, 제주 젊은이들의 직장, 이것을 꼭 마련해줘야 한다. 제주의 젊은이들에게 꿈과 비전을 줄 수 있는 직장을 최우선순위로 해 적극 연계해야 한다"고 주장했다.박연호 오라동발전협의회장은 "과연 승인부서가 시민사회단체인지 의회인지 행정인지 조차 가늠할 수 없다"고 싸잡아 비난했다.박 회장은 "이미 사업부지는 훼손된 곳이다. 이미 식생이 변한 곳"이라며 "지금은 오라단지 내 6만명이 들어서는 시설이 생기면 사업자에게 표창을 줘야 한다. 저희들은 엎드려 큰절을 올려야 한다"고 밝혔다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>롯데관광개발 제주도서 카지노 리조트 모험...총투자비 시총 2.5배 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업산업일반재계전기전자자동차산업에너지ㆍ중공업유통생활경제중기ㆍ창업패션뷰티호텔ㆍ관광의료식음료헬스케어제약ㆍ바이오취업ㆍ채용지방국제생활/문화연예스포츠여행TVBBC 홈 &gt; 산업 &gt; 산업일반 롯데관광개발 제주도서 카지노 리조트 모험...총투자비 시총 2.5배 총투자비 8440억원규모...카지노 면허취득도 과제 (서울=뉴스1) 강현창 기자					| 2017-05-04 08:00 송고 | 2017-05-04 15:23 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주 드림타워 복합리조트 야경 조감도. © News1 무산된 용산 '드림허브' 사업에 참여한 경력이 있는 롯데관광개발이 제주도에서 감당이 쉽지 않아 보이는 카지노 관련 거대 리조트사업을 추진하고 있다. 총투자비가 시가총액의 2.5배에 달하는 8000억원이 넘게 들어가는 것으로 계획되어 있다. 제주도가 유보적 입장을 견지하고 있는 카지노 면허 취득도 숙제다.◇ 제주도에서 카지노 관련 거대 리조트 사업...총투자비 8440억원 4일 관련업계에 따르면 롯데관광개발은 현재 제주도 제주시 노형동에서 제주 '드림타워' 복합 리조트를 건설 중이다. 연면적 30만3737㎡에 지하 6층, 지상 38층, 높이 169m로 지어질 예정이다. 지난해 5월에 착공을 시작했으며, 오는 2019년 9월에 완공될 예정이다.지난 2015년 9월부터 롯데관광개발은 해당 리조트 개발 사업을 중국의 부동산개발사인 녹지그룹과 함께 진행 중이다. 지분율은 롯데관광개발이 59.02%, 녹지그룹이 40.98%다.부지는 롯데관광개발의 자회사인 동화투자개발을 통해 지난 1980년대부터 소유하던 곳이지만 이 곳을 개발할 자금은 부족한 상태였다. 이에 롯데관광개발은 드림타워 개발을 위해 녹지그룹과 손을 잡으면서 복잡한 계약을 걸었다. &lt;뉴스1&gt;이 입수한 양사의 계약내용에 따르면 드림타워가 모두 개발된 뒤 토지와 건물 지분 59.02%는 동화투자개발이 가지며 녹지그룹은 나머지 40.98%를 가지게 된다.앞서 동화투자개발은 지난 2015년 9월 녹지그룹에 해당 전체를 부지를 1920억원에 매각했다. 토지 전체가 한 필지라서 잘라서 매각할 수 없었기 때문이다. 이후 동화투자개발은 토지매각으로 들어온 자금 중 1000억원을 공사진행을 위해 지난해 9월 녹지그룹에 다시 계약금으로 건넸다.이후 동화투자개발은 같은 해 10월에 '계약금 1000억원에 대한 권리'를 롯데관광개발에 모두 현물출자하는 방식으로 사업권을 넘겼다. 이에 롯데관광개발-녹지그룹이 공동으로 드림타워 개발을 시행하게 됐다.세부적으로는 롯데관광개발은 59.02% 자기지분분에 대한 건설비용을 대고 리조트 전체 인테리어를 맡는다. 녹지그룹은 리조트 건물 전체를 시공하면서 자기지분 40.98%에 대한 건설비용을 분담하고 호텔레지던스의 분양도 맡는다. 녹지그룹이 보유한 지분 40.98%는 호텔레지던스에 해당하는 지분이다. 분양이 모두 끝나면 소유권이 일반 분양권자에게 넘어간다.전체 리조트 건설을 녹지그룹이 책임시공형식으로 진행하기 때문에 롯데관광개발이 자기지분분에 대한 건설 중도금을 계속 녹지그룹 측에 지급해야 한다. 1차 중도금 1000억원은 오는 2018년 9월까지 지급해야 한다. 이어 2019년 3월에도 2차 중도금 500억원을 지급해야 하며, 나머지 잔금 3180억원은 2019년 9월 완공 뒤 소유권 이전 등기와 함께 지급하는 것으로 계획되어 있다.여기까지 들어가는 총 건설비만 5680억원이며 추가로 인테리어 비용도 완공 전까지 약 2186억원 가량 들어갈 예정이다. 그 밖에 이자비용과 인테리어 설계비, 취득세 등 비용을 모두 합치면 롯데관광개발이 드림타워에 투자하는 총 비용은 8440억원 규모다. ◇ 연매출 500억원·시총 3000억원대 불과한데…금융가 갸우뚱롯데관광개발이 계획한 투자금은 2일 종가기준 시가총액 3418억원의 2.5배다. 롯데관광개발의 지난해 연결기준 매출액도 총 503억원에 불과하다. 영업이익은 32억원, 당기순이익은 15억원 수준이다. 자산규모는 3622억원이지만 유동성 자산은 468억원이며 이중 현금성 자산은 122억원에 불과하다. 자금조달 계획과 관련 롯데관광개발측은 "중도금 1500억원은 제3자 배정 전환사채 발행을 고려하고 있고 잔금 3180억원은 완공시점에서 금융권에서 대출을 받아 소유권 이전을 받는 것을 검토중"이라고 말했다. 그러나 이에 대해 시중은행권 한 자금전문가는 "큰 규모의 외부자금이 들어가는 사업인 만큼 처음부터 프로젝트파이낸싱(PF)형식으로 접근해서 사업성을 공유하고 자금을 누가 얼마만큼 댈지 결정을 하고 진행해야 맞는 사업으로 보인다"고 말했다. 이 관계자는 "리조트 등 프로젝트성 사업은 아파트 구입과 다르다"며 "자기돈으로 하다가 거의 다 지었으니 등기넘겨 받을 수 있게 대출해달라고 찾아온다고 해서 쉽게 결정할 수 있는 사안이 안되며, 잔금대출 또한 하나의 은행이 다 해줄 수 있는 것도 아닐 수 있다"고 덧붙였다.설사 잔금은 은행권에서 조달한다 해도 중도금 1500억원과 인테리어비용 2186억원도 조달이 간단치는 않다. 두 비용만 합쳐도 시가총액을 넘기 때문에 보통주 증자를 하거나 전환사채를 발행할 경우 대규모 주가희석이 불가피하다.◇ 카지노 면허 취득도 과제...제주도 "당장은 어렵다"사업면에서는 핵심인 카지노 면허는 아직 취득되지 못한 상태다. 롯데관광개발 측은 드림타워 2층에 영업장 면적 9120㎡, 테이블 190개, 슬롯머신 420대 규모의 대형 외국인 전용 카지노를 운영한다는 계획이다. 현재 일반 분양 중인 녹지그룹의 호텔레지던스 수익도 카지노에서 나오는 수익을 나눠주겠다는 게 회사 측의 설명이다.카지노 면허 발급 권한을 가진 제주도는 추가로 당장 면허를 발급하는데 유보적이다. 이미 도내 총 8곳의 사업자가 있는 만큼 감독기구 등 관리제도를 정비하는 것이 먼저라는 입장이다. 원희룡 제주도지사는 최근까지도 "싱가포르 수준의 카지노 감독기구 정립이 우선이며 그 전까지 신규 면허 발급이나 확대를 논할 단계가 아니라"고 말해왔다. 김진배 제주도 카지노산업담당 사무관도 "지난 2월에야 5년 단위 계획인 제주특별자치도 카지노업종합계획이 수립됐다"며 "올해 안에 카지노 추가 면허를 획득하거나 기존 면허를 양도·양수 하는 것은 어렵다"고 말했다. 이어 "도지사가 카지노 신규 면허의 조건으로 내걸었던 카지노감독기구의 설립도 중앙부처와의 협의 등이 필요해 시간과 절차가 아직 더 필요하다"고 덧붙였다.이에 대해 롯데관광개발 관계자는 "제주도에 카지노가 8군데 있지만 모두 규모가 작아 손님 유치나 세수확보 면에서 한계가 있다고 보고 있다"며 "랜드마크 형태로 개발되고 있는 만큼 제주도를 설득해 면허를 취득하도록 노력할 것"이라고 말했다.롯데관광개발은 지난달 21일 기관투자자를 대상으로한 기업설명회에서 연내에 해외자본을 유치해 신규면허를 발급받거나 기존 카지노 사업자의 면허를 사올 예정이라고밝혔다. 롯데관광개발이 기업설명회를 연 것은 지난 2008년 이후 9년만이다. khc@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 타이베이 직항 대만 관광객 유치 주력 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:39 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 타이베이 직항 대만 관광객 유치 주력 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 타이베이 직항 대만 관광객 유치 주력 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.05.04 10:58 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 타이베이국제관광박람회 참가 제주홍보부스 운영, 현지 주요업계 세일즈콜 제주특별자치도와 제주관광공사(사장 최갑열), 제주관광협회(회장 김영진)는 제주도내 업계와 공동으로 오는 5일부터 8일까지 대만에서 개최되는 타이베이국제관광박람회에 참가해 제주관광 공동 홍보에 나선다고 4일 밝혔다.타이베이시 여행상업동업공회가 주최하는 2017 타이베이국제관광박람회는 35개 국가, 460개 업체, 관람인원 약 30만명으로 예측되는 대형 국제관광박람회로 제주도 홍보부스는 한국관광공사에서 전담하는 한국관 안에 위치할 예정이다.도·공사·협회는 도내업계와 공동으로 '제주, 설레는 섬 여행(濟州, 心動島旅)'라는 주제로 6월부터 증편되는 직항노선 활성화를 위해 특수 테마 콘텐츠 홍보 및 개별여행 관광자원 정보 제공을 통해 대만 관광객 유치 확대에 박차를 가할 계획이다.또한 제주 인지도 제고를 위해 제주관광홍보 소개 무대 이벤트를 진행하고, 제주기념품 증정 SNS 이벤트를 통해 개별여행객들이 손쉽게 제주 관광 정보를 얻을 수 있도록 제주관광공사 SNS 채널을 홍보할 예정이다. 이와 더불어 대만 지역 FIT(개별관광객)와 SIT(특수목적관광객) 유치 확대를 위해 대만 주요 항공사 및 여행업계 대상으로 세일즈를 펼쳐 대만-제주 직항노선 안정화와 신규 노선 확대, 제주 특수테마 콘텐츠 상품 개발 및 홍보 강화에 나설 계획이다.제주관광공사 관계자는 "대만관광객 유치 활성화를 위해 지속적으로 다양한 마케팅 활동을 추진하고 있으며, 오는 6월 타이베이-제주 단일 직항노선이 주4편으로 증편함에 따라 더욱 많은 대만 관광객에게 제주의 매력을 알릴 수 있도록 최선을 다할 것"이라고 전했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 도내 우수관광사업체 모집 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 도내 우수관광사업체 모집 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도 도내 우수관광사업체 모집 박미예 기자 승인 2017.05.15 18:10 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=박미예 기자] 제주특별자치도는 관광사업체의 경쟁력 강화를 유도하기 위해 다음 달 2일까지 우수관광사업체를 모집하고 있다.우수관광사업체로 지정되면 지정서 및 인증패가 수여되고, 업체 컨설팅 및 현장교육 등도 지원받게 된다. 또 제주도 관광정보시스템, 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택도 주어진다.모집 대상은 관광지·교통·숙박업·여행업·음식업 5개 분야의 사업체 중 영업신고 후 1년 이상 경과한, 제주에 본점을 둔 사업체다. 이전에 우수관광사업체로 지정돼 2년이 도래한 사업체는 재지정을 받아야 한다.우수관광사업체 지정기간은 오는 7월 1일부터 2019년 6월 30일까지이며, 주요 평가 항목은 사업체의 시설 및 환경, 서비스, 요금, 안전 및 위생관리, 지역 사회 공헌도 등이다.신청 희망 업체는 제주도 홈페이지 입법·공고·고시 게시판에서 신청서를 내려받아 제주도관광협회에 신청하면 된다.문의 741-8744. 박미예 기자  my@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 박미예 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, ‘타이베이국제관광박람회’ 참가 제주관광 공동홍보-국민일보 시사 시사 &gt; 전체기사 제주도, ‘타이베이국제관광박람회’ 참가 제주관광 공동홍보 입력 : 2017-05-05 09:12 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도·제주관광공사·제주관광협회는 오는 8일까지 대만에서 개최되는 ‘타이베이국제관광박람회’에 참가해 본격적인 제주관광 공동홍보에 나선다고 5일 밝혔다. 타이베이시 여행상업동업공회에서 주최하는 ‘2017 타이베이국제관광박람회’는 35개 국가·460개 업체에서 참여하고, 관람인원만 약 30만명에 이르는 대형 국제관광박람회다. 제주도 홍보부스는 한국관광공사에서 전담하는 한국관 안에 위치할 예정이다. 도·공사·협회는 대만 지역 FIT(개별관광객)와 SIT(특수목적관광객) 유치 확대를 위해 대만 주요 항공사 및 여행업계를 대상으로 대만∼제주 직항노선 안정화와 신규 노선 확대, 제주 특수테마 콘텐츠 상품 개발 및 홍보 강화에 나선다.  개별여행객들이 손쉽게 제주 관광정보를 접할 수 있도록 ‘제주, 설레는 섬 여행(濟州, 心動島旅)’을 주제로 한 제주관광공사 SNS 채널도 홍보한다. 도와 공사는 지난 3월 대만 업계 대상 제주관광설명회를 비롯해 타이완 타이거항공 첫 취항 환대행사, 항공사 공동 경유상품 개발 팸투어 등을 추진한 바 있다.  이어 지난달에는 대만 유명 여행프로그램 ‘애완객(愛玩客)’ 제주특집 취재 팸투어를 진행하는 등 대만 시장을 타깃으로 다양한 마케팅 활동을 추진하고 있다. 제주관광공사 관계자는 “6월부터 타이베이∼제주 단일 직항노선이 주4편 증편됨에 따라 많은 대만 관광객에게 제주의 매력을 알릴 수 있는 기회가 넓어졌다”고 밝혔다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
+  </si>
+  <si>
+    <t>제주도의회 환경도시위, 12일 오라관광단지 의견수렴 토론회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:39 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도의회 환경도시위, 12일 오라관광단지 의견수렴 토론회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 제주도의회 환경도시위, 12일 오라관광단지 의견수렴 토론회 개최 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2017.05.11 16:45 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도 개발사(史)에서 최대 규모의 난개발 및 환경훼손 논란이 일고 있는 제주오라관광단지 조성사업과 관련해, 제주특별자치도의회 환경도시위원회(위원장 하민철)가 이 사업에 대한 도민들의 의견을 수렴하기 위해 12일 토론회를 개최한다.환경도시위는 중국자본 JCC㈜가 2021년까지 6조2800억원을 투입해 제주시 오라동 일대 357만5753㎡ 부지에 대한 개발사업을 추진할 예정이어서 이에대한 도민의견을 수렴하고자 토론회를 개최하는 것이라고 밝혔다.환경도시위는 이 사업은 단일개발사업으로는 제주 역대 최대의 투자규모이며, 개발예정지는 제주시 핵심 중산간 지역인 한라산국립공원 바로 밑 해발 350~580m에 위치하고 있어 대규모 개발사업으로 다양한 환경영향이 예상되어 도민들의 다양한 의견을 들을 필요가 있다고 판단했다고 설명했다.토론회는 고충석 제주국제대학교 총장이 좌장을 맡아 주제발표 없이 막바로 패널 토론 및 방청석 토론방식으로 진행된다.패널토론에는 허철구 제주대학교 환경공학과 교수, 고병련 제주국제대학교 토목공학과 교수, 양창헌 제주상공회의소 국제협력분과위원장, 성공훈 대한건설기계협회 제주도회장, 남기영 제주지역상권보호대책위원회 수석부회장, 문상빈 제주시민사회단체연대회의 공동대표, 박연호 오라동발전협의회장, 성현 정실마을 오라관광단지 반대대책추진위원장 등이 참여한다.한편 환경도시위는 이 토론회가 끝나면 오는 15일 개회하는 제351회 임시회에서 오라관광단지 조성사업 환경영향평가서 협의내용 동의안을 상정해 심의한다고 11일 밝혔다. 현재 17일 상임위 심의일정이 잡혀져 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 난개발 논란 오라관광단지 동의안 재상정 추진, 이번에는? 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도의 힘! 中 악재 속 내국인 관광객 ‘북적’ | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도의 힘! 中 악재 속 내국인 관광객 ‘북적’ 입력 : 2017-05-10 03:00:00 수정 : 2017-05-09 20:37:55 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 황금연휴기간 41만여명 방문 제주도가 사드 직격탄을 맞았지만 5월 황금연휴 기간 내국인 관광객들로 넘쳐나 관광업계가 특수를 누렸다. 9일 제주도관광협회에 따르면 지난달 29일부터 이달 7일까지 관광객 41만6325명이 제주를 방문한 것으로 잠정집계됐다. 이는 지난해 같은 기간 40만6615명에 비해 2.3 증가한 것이다. 사드(THAAD·고고도미사일방어체계) 배치에 따른 중국 정부의 한국관광 금지에도 전체 관광객 수는 늘었다. 연휴 첫날인 4월29일과 석가탄신일인 5월3일에는 하루 방문객이 5만명을 넘었다. 내국인은 38만7427명으로 연휴 기간 방문한 관광객의 93를 기록했다. 전년 같은 기간 내국인 33만4938명보다 15.7 늘어난 것이다. 대선일인 9일과 10일 이틀간에도 내외국인 관광객 8만여 명이 제주를 찾을 것으로 예상된다. 그러나 중국인 관광객 감소로 이 기간 외국인 관광객은 2만8898명에 그쳤다. 지난해 같은 기간 9만3287명과 비교해 69 급감한 것이다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20170509001885 0101070100000 0 2017-05-10 3:4:44 2017-05-09 20:37:55 0 제주도의 힘! 中 악재 속 내국인 관광객 ‘북적’ 세계일보 지원선 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도 흑돼지 전문 맛집 ‘문치비’, 여행·관광객 입맛 사로잡다 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 12:40 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 흑돼지 전문 맛집 ‘문치비’, 여행·관광객 입맛 사로잡다 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 흑돼지 전문 맛집 ‘문치비’, 여행·관광객 입맛 사로잡다 기자명 인터넷뉴스팀 기자 입력 2017.05.11 16:13 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 제주도 서귀포시에서 지난 5월 6일 새연교 특설무대에서 열린 ‘2017 새연교 시민 콘서트’가 성황리에 개막했다. ‘봄날의 음악편지’를 주제로 열린 이번 콘서트는 총 4개 팀의 열정적인 공연을 관광객과 시민 500여명에게 선사했다.2011년부터 시작된 새연교 콘서트는 서귀포 체류 관광객의 만족도와 도시브랜드 이미지를 높이며 연간 4,000여명의 관람객이 방문하는 등 대표 야간관광 이벤트로 자리매김 되고 있다.‘2017 새연교 시민 콘서트’는 5월부터 9월까지 매월 첫째, 셋째 주 토요일 저녁 7시에 정기적으로 열린다.축제하면 빠질 수 없는 것이 맛집 방문이다. 서귀포 새연교 시민 콘서트를 비롯해 중문 관광단지와 월드컵 경기장, 엉또폭포 등 제주 주요 관광지와 인접해 있는 흑돼지 전문 맛집을 소개한다.제주 강정동 서귀포 신시가지 소재 ‘문치비’(대표 문신민)에서는 메인 메뉴인 흑돼지 외에 일반 돼지도 취급하며 목살과 양념돼지갈비, 항정살과 갈매기똥(갈매기살) 등 다양한 메뉴를 선뵈고 있다. 모든 고기메뉴는 근 고기(600g) 단위로도 주문이 가능하며 가족외식, 직장인 회식이나 동창회모임 등 단체방문도 가능하며 식사류가 함께 마련돼 있어 1차와 2차를 동시에 해결할 수 있다.문치비에서는 깡통 위에 고기를 굽는 것이 특징이다. 고기 주문 시 편백나무 도마 위에 고기가 썰려 나오며 기본 상차림으로 제주도 향토음식인 몸국과 돼지껍데기를 내놓는다.문치비 문신민 대표는 “문치비의 ‘치비’는 제주도 방언으로 ~씨네, ~가네 라는 뜻으로 문씨네 혹은 문가네로 해석된다.”며, “이름을 걸고 식당을 운영하는 만큼 고객들이 내 가족에게 믿고 추천할 수 있는 장소가 될 수 있도록 정진하겠다.”고 말했다.예약 및 기타 자세한 사항은 제주도 강정동 서귀포 신시가지 소재 ‘문치비’로 문의하면 된다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 기자 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 '대세 걸그룹' 뉴진스, 신한은행 '뉴 쏠' 모델 발탁 당신만 안 본 뉴스 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? '천원짜리 변호사' 김지은, 낯익다 했더니 ITZY 류진·한소희·손나은 닮은꼴 '마약 혐의' 돈스파이크 입건에 성하윤 프로필·직업·인스타 관심 [특징주] 오성첨단소재 주가 급등세… 이유는? '소상공인 손실보상 2분기' 신청 시작... 대상·신청 방법은? [내일날씨] 전국 흐리고 비내려...일부 돌풍에 천둥·번개까지 '확인 방법 이렇게' 상생소비복권 당첨자 30일 발표...지급일 언제? "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 오늘공감 치열한 카드 빅4 경쟁…앱 사용자 분포는? '그림으로의 치유'…장수희 작가, 제8회 개인전 '노스텔지아' 개최 서울시교육청, 오는 28일까지 ‘빅데이터 활용 아이디어’ 공모 아빠의 무관심이 미덕(?)...초딩 아빠와 교장샘이 함께 춤을 추는 학교 한국화의 서태지 신동철 화백, 40회 개인전 ‘유몽고금(遊夢古今)’ 인기기사 1 [조봉현의 스타트업경제] 과거와 다른 高환율, 어디로 튈까? 2 조경태, "국민을 피해자로 만드는 '국회의원 면책특권' 폐지하라" 3 박수영 “국립대 교수 일가에게 놀아난 한전 자회사들…정부가 전수조사 해야" 4 유럽 출장길 오른 손태승 회장… UNEP FI 등과 국제협력 논의 5 외국인 고액 체납자 절반은 출국… 국세청 관리체계 구멍 6 대한민국 시·도의회의장협의회 김현기 회장, 제2회 중앙지방협력회의 참석 7 5년간 국민 1인당 세부담 300만원 늘어 8 양정숙 의원, "보험사, 은행, 정보보안·개인정보 보호 인증 안 받아" 9 김상훈 의원, 작년 국민 1인당 세금부담 1천199만원…2017년 이후 300만원 증가 10 4분기 제조업 '경기 악화' 전망 기업 ↑…“환율 상승에 원자재 비용 부담” 최신기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -437,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +678,227 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
